--- a/testbed/Historical Transactions/Historical Transactions.xlsx
+++ b/testbed/Historical Transactions/Historical Transactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Design Folder\RBGithub\Lifestyle-Analysis\testbed\Historical Transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A43F0A8-1B34-4F9D-B90D-3DC560FD633D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5E5368-2089-4C40-BF15-F967CD0B7708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="2595" windowWidth="18240" windowHeight="15345" xr2:uid="{B8D07FC4-7D1D-49DD-ABE7-ADFCB5E59BE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B8D07FC4-7D1D-49DD-ABE7-ADFCB5E59BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1262,7 +1262,7 @@
   <dimension ref="A1:F663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>110</v>
+        <v>-110</v>
       </c>
       <c r="F2" t="s">
         <v>229</v>
@@ -1329,7 +1329,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2">
-        <v>21.73</v>
+        <v>-21.73</v>
       </c>
       <c r="F3" t="s">
         <v>246</v>
@@ -1349,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>400</v>
+        <v>-400</v>
       </c>
       <c r="F4" t="s">
         <v>246</v>
@@ -1369,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2">
-        <v>3.25</v>
+        <v>-3.25</v>
       </c>
       <c r="F5" t="s">
         <v>246</v>
@@ -1409,7 +1409,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="2">
-        <v>150</v>
+        <v>-150</v>
       </c>
       <c r="F7" t="s">
         <v>246</v>
@@ -1429,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="2">
-        <v>93.43</v>
+        <v>-93.43</v>
       </c>
       <c r="F8" t="s">
         <v>251</v>
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="F10" t="s">
         <v>247</v>
@@ -1489,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>20.79</v>
+        <v>-20.79</v>
       </c>
       <c r="F11" t="s">
         <v>229</v>
@@ -1509,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="2">
-        <v>17.45</v>
+        <v>-17.45</v>
       </c>
       <c r="F12" t="s">
         <v>229</v>
@@ -1529,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="2">
-        <v>341</v>
+        <v>-341</v>
       </c>
       <c r="F13" t="s">
         <v>246</v>
@@ -1549,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>24.33</v>
+        <v>-24.33</v>
       </c>
       <c r="F14" t="s">
         <v>244</v>
@@ -1569,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="2">
-        <v>224.93</v>
+        <v>-224.93</v>
       </c>
       <c r="F15" t="s">
         <v>246</v>
@@ -1589,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="2">
-        <v>8.3000000000000007</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="F16" t="s">
         <v>228</v>
@@ -1609,7 +1609,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="2">
-        <v>89.1</v>
+        <v>-89.1</v>
       </c>
       <c r="F17" t="s">
         <v>230</v>
@@ -1629,7 +1629,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="2">
-        <v>10.85</v>
+        <v>-10.85</v>
       </c>
       <c r="F18" t="s">
         <v>245</v>
@@ -1649,7 +1649,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="2">
-        <v>12.48</v>
+        <v>-12.48</v>
       </c>
       <c r="F19" t="s">
         <v>228</v>
@@ -1669,7 +1669,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="2">
-        <v>5.32</v>
+        <v>-5.32</v>
       </c>
       <c r="F20" t="s">
         <v>228</v>
@@ -1689,7 +1689,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="2">
-        <v>48.88</v>
+        <v>-48.88</v>
       </c>
       <c r="F21" t="s">
         <v>244</v>
@@ -1709,7 +1709,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="2">
-        <v>7.81</v>
+        <v>-7.81</v>
       </c>
       <c r="F22" t="s">
         <v>235</v>
@@ -1729,7 +1729,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="2">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
       <c r="F23" t="s">
         <v>228</v>
@@ -1749,7 +1749,7 @@
         <v>26</v>
       </c>
       <c r="E24" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F24" t="s">
         <v>246</v>
@@ -1769,7 +1769,7 @@
         <v>27</v>
       </c>
       <c r="E25" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F25" t="s">
         <v>252</v>
@@ -1789,7 +1789,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F26" t="s">
         <v>252</v>
@@ -1809,7 +1809,7 @@
         <v>28</v>
       </c>
       <c r="E27" s="2">
-        <v>5.65</v>
+        <v>-5.65</v>
       </c>
       <c r="F27" t="s">
         <v>255</v>
@@ -1829,7 +1829,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F28" t="s">
         <v>252</v>
@@ -1849,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="E29" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F29" t="s">
         <v>228</v>
@@ -1869,7 +1869,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="2">
-        <v>110.5</v>
+        <v>-110.5</v>
       </c>
       <c r="F30" t="s">
         <v>246</v>
@@ -1889,7 +1889,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F31" t="s">
         <v>252</v>
@@ -1909,7 +1909,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="2">
-        <v>5.65</v>
+        <v>-5.65</v>
       </c>
       <c r="F32" t="s">
         <v>255</v>
@@ -1929,7 +1929,7 @@
         <v>27</v>
       </c>
       <c r="E33" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F33" t="s">
         <v>252</v>
@@ -1949,7 +1949,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="2">
-        <v>10.33</v>
+        <v>-10.33</v>
       </c>
       <c r="F34" t="s">
         <v>253</v>
@@ -1969,7 +1969,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="2">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
       <c r="F35" t="s">
         <v>243</v>
@@ -1989,7 +1989,7 @@
         <v>27</v>
       </c>
       <c r="E36" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F36" t="s">
         <v>252</v>
@@ -2009,7 +2009,7 @@
         <v>28</v>
       </c>
       <c r="E37" s="2">
-        <v>5.65</v>
+        <v>-5.65</v>
       </c>
       <c r="F37" t="s">
         <v>255</v>
@@ -2029,7 +2029,7 @@
         <v>27</v>
       </c>
       <c r="E38" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F38" t="s">
         <v>252</v>
@@ -2049,7 +2049,7 @@
         <v>29</v>
       </c>
       <c r="E39" s="2">
-        <v>3.85</v>
+        <v>-3.85</v>
       </c>
       <c r="F39" t="s">
         <v>228</v>
@@ -2069,7 +2069,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F40" t="s">
         <v>252</v>
@@ -2089,7 +2089,7 @@
         <v>32</v>
       </c>
       <c r="E41" s="2">
-        <v>4.9000000000000004</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="F41" t="s">
         <v>229</v>
@@ -2109,7 +2109,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F42" t="s">
         <v>252</v>
@@ -2129,7 +2129,7 @@
         <v>31</v>
       </c>
       <c r="E43" s="2">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="F43" t="s">
         <v>243</v>
@@ -2149,7 +2149,7 @@
         <v>27</v>
       </c>
       <c r="E44" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F44" t="s">
         <v>252</v>
@@ -2169,7 +2169,7 @@
         <v>33</v>
       </c>
       <c r="E45" s="2">
-        <v>3.2</v>
+        <v>-3.2</v>
       </c>
       <c r="F45" t="s">
         <v>228</v>
@@ -2189,7 +2189,7 @@
         <v>34</v>
       </c>
       <c r="E46" s="2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F46" t="s">
         <v>249</v>
@@ -2209,7 +2209,7 @@
         <v>27</v>
       </c>
       <c r="E47" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F47" t="s">
         <v>252</v>
@@ -2229,7 +2229,7 @@
         <v>28</v>
       </c>
       <c r="E48" s="2">
-        <v>5.65</v>
+        <v>-5.65</v>
       </c>
       <c r="F48" t="s">
         <v>255</v>
@@ -2249,7 +2249,7 @@
         <v>27</v>
       </c>
       <c r="E49" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F49" t="s">
         <v>252</v>
@@ -2269,7 +2269,7 @@
         <v>29</v>
       </c>
       <c r="E50" s="2">
-        <v>4.59</v>
+        <v>-4.59</v>
       </c>
       <c r="F50" t="s">
         <v>228</v>
@@ -2289,7 +2289,7 @@
         <v>35</v>
       </c>
       <c r="E51" s="2">
-        <v>23.99</v>
+        <v>-23.99</v>
       </c>
       <c r="F51" t="s">
         <v>235</v>
@@ -2309,7 +2309,7 @@
         <v>27</v>
       </c>
       <c r="E52" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F52" t="s">
         <v>252</v>
@@ -2329,7 +2329,7 @@
         <v>27</v>
       </c>
       <c r="E53" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F53" t="s">
         <v>252</v>
@@ -2349,7 +2349,7 @@
         <v>27</v>
       </c>
       <c r="E54" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F54" t="s">
         <v>252</v>
@@ -2369,7 +2369,7 @@
         <v>28</v>
       </c>
       <c r="E55" s="2">
-        <v>5.65</v>
+        <v>-5.65</v>
       </c>
       <c r="F55" t="s">
         <v>255</v>
@@ -2389,7 +2389,7 @@
         <v>36</v>
       </c>
       <c r="E56" s="2">
-        <v>11.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F56" t="s">
         <v>228</v>
@@ -2409,7 +2409,7 @@
         <v>37</v>
       </c>
       <c r="E57" s="2">
-        <v>12.17</v>
+        <v>-12.17</v>
       </c>
       <c r="F57" t="s">
         <v>229</v>
@@ -2429,7 +2429,7 @@
         <v>27</v>
       </c>
       <c r="E58" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F58" t="s">
         <v>252</v>
@@ -2449,7 +2449,7 @@
         <v>29</v>
       </c>
       <c r="E59" s="2">
-        <v>19.989999999999998</v>
+        <v>-19.989999999999998</v>
       </c>
       <c r="F59" t="s">
         <v>228</v>
@@ -2469,7 +2469,7 @@
         <v>27</v>
       </c>
       <c r="E60" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F60" t="s">
         <v>252</v>
@@ -2489,7 +2489,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="2">
-        <v>10.75</v>
+        <v>-10.75</v>
       </c>
       <c r="F61" t="s">
         <v>246</v>
@@ -2509,7 +2509,7 @@
         <v>38</v>
       </c>
       <c r="E62" s="2">
-        <v>10.89</v>
+        <v>-10.89</v>
       </c>
       <c r="F62" t="s">
         <v>234</v>
@@ -2529,7 +2529,7 @@
         <v>35</v>
       </c>
       <c r="E63" s="2">
-        <v>5.68</v>
+        <v>-5.68</v>
       </c>
       <c r="F63" t="s">
         <v>235</v>
@@ -2549,7 +2549,7 @@
         <v>39</v>
       </c>
       <c r="E64" s="2">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F64" t="s">
         <v>249</v>
@@ -2569,7 +2569,7 @@
         <v>27</v>
       </c>
       <c r="E65" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F65" t="s">
         <v>252</v>
@@ -2589,7 +2589,7 @@
         <v>28</v>
       </c>
       <c r="E66" s="2">
-        <v>5.65</v>
+        <v>-5.65</v>
       </c>
       <c r="F66" t="s">
         <v>255</v>
@@ -2609,7 +2609,7 @@
         <v>27</v>
       </c>
       <c r="E67" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F67" t="s">
         <v>252</v>
@@ -2629,7 +2629,7 @@
         <v>29</v>
       </c>
       <c r="E68" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F68" t="s">
         <v>228</v>
@@ -2649,7 +2649,7 @@
         <v>40</v>
       </c>
       <c r="E69" s="2">
-        <v>12.17</v>
+        <v>-12.17</v>
       </c>
       <c r="F69" t="s">
         <v>255</v>
@@ -2669,7 +2669,7 @@
         <v>41</v>
       </c>
       <c r="E70" s="2">
-        <v>14.79</v>
+        <v>-14.79</v>
       </c>
       <c r="F70" t="s">
         <v>235</v>
@@ -2689,7 +2689,7 @@
         <v>40</v>
       </c>
       <c r="E71" s="2">
-        <v>12.62</v>
+        <v>-12.62</v>
       </c>
       <c r="F71" t="s">
         <v>255</v>
@@ -2709,7 +2709,7 @@
         <v>42</v>
       </c>
       <c r="E72" s="2">
-        <v>11.11</v>
+        <v>-11.11</v>
       </c>
       <c r="F72" t="s">
         <v>244</v>
@@ -2729,7 +2729,7 @@
         <v>43</v>
       </c>
       <c r="E73" s="2">
-        <v>3.81</v>
+        <v>-3.81</v>
       </c>
       <c r="F73" t="s">
         <v>244</v>
@@ -2749,7 +2749,7 @@
         <v>44</v>
       </c>
       <c r="E74" s="2">
-        <v>99.85</v>
+        <v>-99.85</v>
       </c>
       <c r="F74" t="s">
         <v>245</v>
@@ -2769,7 +2769,7 @@
         <v>45</v>
       </c>
       <c r="E75" s="2">
-        <v>9.8800000000000008</v>
+        <v>-9.8800000000000008</v>
       </c>
       <c r="F75" t="s">
         <v>229</v>
@@ -2789,7 +2789,7 @@
         <v>46</v>
       </c>
       <c r="E76" s="2">
-        <v>5.77</v>
+        <v>-5.77</v>
       </c>
       <c r="F76" t="s">
         <v>235</v>
@@ -2809,7 +2809,7 @@
         <v>47</v>
       </c>
       <c r="E77" s="2">
-        <v>31.88</v>
+        <v>-31.88</v>
       </c>
       <c r="F77" t="s">
         <v>244</v>
@@ -2829,7 +2829,7 @@
         <v>48</v>
       </c>
       <c r="E78" s="2">
-        <v>12.69</v>
+        <v>-12.69</v>
       </c>
       <c r="F78" t="s">
         <v>244</v>
@@ -2849,7 +2849,7 @@
         <v>49</v>
       </c>
       <c r="E79" s="2">
-        <v>17.27</v>
+        <v>-17.27</v>
       </c>
       <c r="F79" t="s">
         <v>235</v>
@@ -2869,7 +2869,7 @@
         <v>50</v>
       </c>
       <c r="E80" s="2">
-        <v>86.73</v>
+        <v>-86.73</v>
       </c>
       <c r="F80" t="s">
         <v>244</v>
@@ -2889,7 +2889,7 @@
         <v>51</v>
       </c>
       <c r="E81" s="2">
-        <v>10.91</v>
+        <v>-10.91</v>
       </c>
       <c r="F81" t="s">
         <v>244</v>
@@ -2909,7 +2909,7 @@
         <v>52</v>
       </c>
       <c r="E82" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F82" t="s">
         <v>246</v>
@@ -2929,7 +2929,7 @@
         <v>53</v>
       </c>
       <c r="E83" s="2">
-        <v>19.170000000000002</v>
+        <v>-19.170000000000002</v>
       </c>
       <c r="F83" t="s">
         <v>235</v>
@@ -2949,7 +2949,7 @@
         <v>35</v>
       </c>
       <c r="E84" s="2">
-        <v>26.61</v>
+        <v>-26.61</v>
       </c>
       <c r="F84" t="s">
         <v>235</v>
@@ -2969,7 +2969,7 @@
         <v>28</v>
       </c>
       <c r="E85" s="2">
-        <v>5.65</v>
+        <v>-5.65</v>
       </c>
       <c r="F85" t="s">
         <v>255</v>
@@ -2989,7 +2989,7 @@
         <v>27</v>
       </c>
       <c r="E86" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F86" t="s">
         <v>252</v>
@@ -3009,7 +3009,7 @@
         <v>27</v>
       </c>
       <c r="E87" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F87" t="s">
         <v>252</v>
@@ -3029,7 +3029,7 @@
         <v>29</v>
       </c>
       <c r="E88" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F88" t="s">
         <v>228</v>
@@ -3049,7 +3049,7 @@
         <v>54</v>
       </c>
       <c r="E89" s="2">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F89" t="s">
         <v>252</v>
@@ -3069,7 +3069,7 @@
         <v>44</v>
       </c>
       <c r="E90" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F90" t="s">
         <v>245</v>
@@ -3089,7 +3089,7 @@
         <v>27</v>
       </c>
       <c r="E91" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F91" t="s">
         <v>252</v>
@@ -3109,7 +3109,7 @@
         <v>27</v>
       </c>
       <c r="E92" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F92" t="s">
         <v>252</v>
@@ -3129,7 +3129,7 @@
         <v>29</v>
       </c>
       <c r="E93" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F93" t="s">
         <v>228</v>
@@ -3149,7 +3149,7 @@
         <v>27</v>
       </c>
       <c r="E94" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F94" t="s">
         <v>252</v>
@@ -3169,7 +3169,7 @@
         <v>28</v>
       </c>
       <c r="E95" s="2">
-        <v>5.65</v>
+        <v>-5.65</v>
       </c>
       <c r="F95" t="s">
         <v>255</v>
@@ -3189,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="E96" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F96" t="s">
         <v>252</v>
@@ -3209,7 +3209,7 @@
         <v>27</v>
       </c>
       <c r="E97" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F97" t="s">
         <v>252</v>
@@ -3229,7 +3229,7 @@
         <v>39</v>
       </c>
       <c r="E98" s="2">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F98" t="s">
         <v>249</v>
@@ -3249,7 +3249,7 @@
         <v>42</v>
       </c>
       <c r="E99" s="2">
-        <v>13.65</v>
+        <v>-13.65</v>
       </c>
       <c r="F99" t="s">
         <v>244</v>
@@ -3269,7 +3269,7 @@
         <v>26</v>
       </c>
       <c r="E100" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F100" t="s">
         <v>246</v>
@@ -3289,7 +3289,7 @@
         <v>42</v>
       </c>
       <c r="E101" s="2">
-        <v>15.8</v>
+        <v>-15.8</v>
       </c>
       <c r="F101" t="s">
         <v>244</v>
@@ -3309,7 +3309,7 @@
         <v>55</v>
       </c>
       <c r="E102" s="2">
-        <v>57.19</v>
+        <v>-57.19</v>
       </c>
       <c r="F102" t="s">
         <v>244</v>
@@ -3329,7 +3329,7 @@
         <v>56</v>
       </c>
       <c r="E103" s="2">
-        <v>4.96</v>
+        <v>-4.96</v>
       </c>
       <c r="F103" t="s">
         <v>255</v>
@@ -3349,7 +3349,7 @@
         <v>57</v>
       </c>
       <c r="E104" s="2">
-        <v>14.95</v>
+        <v>-14.95</v>
       </c>
       <c r="F104" t="s">
         <v>252</v>
@@ -3369,7 +3369,7 @@
         <v>27</v>
       </c>
       <c r="E105" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F105" t="s">
         <v>252</v>
@@ -3389,7 +3389,7 @@
         <v>36</v>
       </c>
       <c r="E106" s="2">
-        <v>11.28</v>
+        <v>-11.28</v>
       </c>
       <c r="F106" t="s">
         <v>228</v>
@@ -3409,7 +3409,7 @@
         <v>27</v>
       </c>
       <c r="E107" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F107" t="s">
         <v>252</v>
@@ -3429,7 +3429,7 @@
         <v>35</v>
       </c>
       <c r="E108" s="2">
-        <v>10.039999999999999</v>
+        <v>-10.039999999999999</v>
       </c>
       <c r="F108" t="s">
         <v>235</v>
@@ -3449,7 +3449,7 @@
         <v>27</v>
       </c>
       <c r="E109" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F109" t="s">
         <v>252</v>
@@ -3469,7 +3469,7 @@
         <v>27</v>
       </c>
       <c r="E110" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F110" t="s">
         <v>252</v>
@@ -3489,7 +3489,7 @@
         <v>29</v>
       </c>
       <c r="E111" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F111" t="s">
         <v>228</v>
@@ -3509,7 +3509,7 @@
         <v>27</v>
       </c>
       <c r="E112" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F112" t="s">
         <v>252</v>
@@ -3529,7 +3529,7 @@
         <v>27</v>
       </c>
       <c r="E113" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F113" t="s">
         <v>252</v>
@@ -3549,7 +3549,7 @@
         <v>29</v>
       </c>
       <c r="E114" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F114" t="s">
         <v>228</v>
@@ -3569,7 +3569,7 @@
         <v>39</v>
       </c>
       <c r="E115" s="2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F115" t="s">
         <v>249</v>
@@ -3589,7 +3589,7 @@
         <v>58</v>
       </c>
       <c r="E116" s="2">
-        <v>3.68</v>
+        <v>-3.68</v>
       </c>
       <c r="F116" t="s">
         <v>253</v>
@@ -3609,7 +3609,7 @@
         <v>59</v>
       </c>
       <c r="E117" s="2">
-        <v>10.09</v>
+        <v>-10.09</v>
       </c>
       <c r="F117" t="s">
         <v>228</v>
@@ -3629,7 +3629,7 @@
         <v>44</v>
       </c>
       <c r="E118" s="2">
-        <v>10.88</v>
+        <v>-10.88</v>
       </c>
       <c r="F118" t="s">
         <v>245</v>
@@ -3649,7 +3649,7 @@
         <v>60</v>
       </c>
       <c r="E119" s="2">
-        <v>51.22</v>
+        <v>-51.22</v>
       </c>
       <c r="F119" t="s">
         <v>234</v>
@@ -3669,7 +3669,7 @@
         <v>27</v>
       </c>
       <c r="E120" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F120" t="s">
         <v>252</v>
@@ -3689,7 +3689,7 @@
         <v>27</v>
       </c>
       <c r="E121" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F121" t="s">
         <v>252</v>
@@ -3709,7 +3709,7 @@
         <v>61</v>
       </c>
       <c r="E122" s="2">
-        <v>9.82</v>
+        <v>-9.82</v>
       </c>
       <c r="F122" t="s">
         <v>255</v>
@@ -3729,7 +3729,7 @@
         <v>27</v>
       </c>
       <c r="E123" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F123" t="s">
         <v>252</v>
@@ -3749,7 +3749,7 @@
         <v>29</v>
       </c>
       <c r="E124" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F124" t="s">
         <v>228</v>
@@ -3769,7 +3769,7 @@
         <v>62</v>
       </c>
       <c r="E125" s="2">
-        <v>3.91</v>
+        <v>-3.91</v>
       </c>
       <c r="F125" t="s">
         <v>255</v>
@@ -3789,7 +3789,7 @@
         <v>27</v>
       </c>
       <c r="E126" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F126" t="s">
         <v>252</v>
@@ -3809,7 +3809,7 @@
         <v>27</v>
       </c>
       <c r="E127" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F127" t="s">
         <v>252</v>
@@ -3829,7 +3829,7 @@
         <v>29</v>
       </c>
       <c r="E128" s="2">
-        <v>11.89</v>
+        <v>-11.89</v>
       </c>
       <c r="F128" t="s">
         <v>228</v>
@@ -3849,7 +3849,7 @@
         <v>63</v>
       </c>
       <c r="E129" s="2">
-        <v>12.81</v>
+        <v>-12.81</v>
       </c>
       <c r="F129" t="s">
         <v>228</v>
@@ -3869,7 +3869,7 @@
         <v>63</v>
       </c>
       <c r="E130" s="2">
-        <v>13.96</v>
+        <v>-13.96</v>
       </c>
       <c r="F130" t="s">
         <v>228</v>
@@ -3889,7 +3889,7 @@
         <v>64</v>
       </c>
       <c r="E131" s="2">
-        <v>11.92</v>
+        <v>-11.92</v>
       </c>
       <c r="F131" t="s">
         <v>229</v>
@@ -3909,7 +3909,7 @@
         <v>27</v>
       </c>
       <c r="E132" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F132" t="s">
         <v>252</v>
@@ -3929,7 +3929,7 @@
         <v>27</v>
       </c>
       <c r="E133" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F133" t="s">
         <v>252</v>
@@ -3949,7 +3949,7 @@
         <v>27</v>
       </c>
       <c r="E134" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F134" t="s">
         <v>252</v>
@@ -3969,7 +3969,7 @@
         <v>27</v>
       </c>
       <c r="E135" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F135" t="s">
         <v>252</v>
@@ -3989,7 +3989,7 @@
         <v>65</v>
       </c>
       <c r="E136" s="2">
-        <v>16.53</v>
+        <v>-16.53</v>
       </c>
       <c r="F136" t="s">
         <v>229</v>
@@ -4009,7 +4009,7 @@
         <v>27</v>
       </c>
       <c r="E137" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F137" t="s">
         <v>252</v>
@@ -4029,7 +4029,7 @@
         <v>36</v>
       </c>
       <c r="E138" s="2">
-        <v>3.85</v>
+        <v>-3.85</v>
       </c>
       <c r="F138" t="s">
         <v>228</v>
@@ -4049,7 +4049,7 @@
         <v>61</v>
       </c>
       <c r="E139" s="2">
-        <v>13.28</v>
+        <v>-13.28</v>
       </c>
       <c r="F139" t="s">
         <v>255</v>
@@ -4069,7 +4069,7 @@
         <v>27</v>
       </c>
       <c r="E140" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F140" t="s">
         <v>252</v>
@@ -4089,7 +4089,7 @@
         <v>29</v>
       </c>
       <c r="E141" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F141" t="s">
         <v>228</v>
@@ -4109,7 +4109,7 @@
         <v>27</v>
       </c>
       <c r="E142" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F142" t="s">
         <v>252</v>
@@ -4129,7 +4129,7 @@
         <v>66</v>
       </c>
       <c r="E143" s="2">
-        <v>4.59</v>
+        <v>-4.59</v>
       </c>
       <c r="F143" t="s">
         <v>228</v>
@@ -4149,7 +4149,7 @@
         <v>67</v>
       </c>
       <c r="E144" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F144" t="s">
         <v>252</v>
@@ -4169,7 +4169,7 @@
         <v>27</v>
       </c>
       <c r="E145" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F145" t="s">
         <v>252</v>
@@ -4189,7 +4189,7 @@
         <v>27</v>
       </c>
       <c r="E146" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F146" t="s">
         <v>252</v>
@@ -4209,7 +4209,7 @@
         <v>29</v>
       </c>
       <c r="E147" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F147" t="s">
         <v>228</v>
@@ -4229,7 +4229,7 @@
         <v>35</v>
       </c>
       <c r="E148" s="2">
-        <v>21.29</v>
+        <v>-21.29</v>
       </c>
       <c r="F148" t="s">
         <v>235</v>
@@ -4249,7 +4249,7 @@
         <v>44</v>
       </c>
       <c r="E149" s="2">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F149" t="s">
         <v>245</v>
@@ -4269,7 +4269,7 @@
         <v>27</v>
       </c>
       <c r="E150" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F150" t="s">
         <v>252</v>
@@ -4289,7 +4289,7 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>5.65</v>
+        <v>-5.65</v>
       </c>
       <c r="F151" t="s">
         <v>255</v>
@@ -4309,7 +4309,7 @@
         <v>36</v>
       </c>
       <c r="E152" s="2">
-        <v>8.7899999999999991</v>
+        <v>-8.7899999999999991</v>
       </c>
       <c r="F152" t="s">
         <v>228</v>
@@ -4329,7 +4329,7 @@
         <v>27</v>
       </c>
       <c r="E153" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F153" t="s">
         <v>252</v>
@@ -4349,7 +4349,7 @@
         <v>68</v>
       </c>
       <c r="E154" s="2">
-        <v>19.920000000000002</v>
+        <v>-19.920000000000002</v>
       </c>
       <c r="F154" t="s">
         <v>228</v>
@@ -4369,7 +4369,7 @@
         <v>27</v>
       </c>
       <c r="E155" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F155" t="s">
         <v>252</v>
@@ -4389,7 +4389,7 @@
         <v>65</v>
       </c>
       <c r="E156" s="2">
-        <v>12.36</v>
+        <v>-12.36</v>
       </c>
       <c r="F156" t="s">
         <v>229</v>
@@ -4409,7 +4409,7 @@
         <v>27</v>
       </c>
       <c r="E157" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F157" t="s">
         <v>252</v>
@@ -4429,7 +4429,7 @@
         <v>69</v>
       </c>
       <c r="E158" s="2">
-        <v>5.22</v>
+        <v>-5.22</v>
       </c>
       <c r="F158" t="s">
         <v>228</v>
@@ -4449,7 +4449,7 @@
         <v>31</v>
       </c>
       <c r="E159" s="2">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
       <c r="F159" t="s">
         <v>243</v>
@@ -4469,7 +4469,7 @@
         <v>27</v>
       </c>
       <c r="E160" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F160" t="s">
         <v>252</v>
@@ -4489,7 +4489,7 @@
         <v>36</v>
       </c>
       <c r="E161" s="2">
-        <v>6.08</v>
+        <v>-6.08</v>
       </c>
       <c r="F161" t="s">
         <v>228</v>
@@ -4509,7 +4509,7 @@
         <v>52</v>
       </c>
       <c r="E162" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F162" t="s">
         <v>246</v>
@@ -4529,7 +4529,7 @@
         <v>70</v>
       </c>
       <c r="E163" s="2">
-        <v>15.74</v>
+        <v>-15.74</v>
       </c>
       <c r="F163" t="s">
         <v>244</v>
@@ -4549,7 +4549,7 @@
         <v>71</v>
       </c>
       <c r="E164" s="2">
-        <v>26.65</v>
+        <v>-26.65</v>
       </c>
       <c r="F164" t="s">
         <v>234</v>
@@ -4569,7 +4569,7 @@
         <v>72</v>
       </c>
       <c r="E165" s="2">
-        <v>17.350000000000001</v>
+        <v>-17.350000000000001</v>
       </c>
       <c r="F165" t="s">
         <v>244</v>
@@ -4589,7 +4589,7 @@
         <v>73</v>
       </c>
       <c r="E166" s="2">
-        <v>6.62</v>
+        <v>-6.62</v>
       </c>
       <c r="F166" t="s">
         <v>244</v>
@@ -4609,7 +4609,7 @@
         <v>44</v>
       </c>
       <c r="E167" s="2">
-        <v>6.09</v>
+        <v>-6.09</v>
       </c>
       <c r="F167" t="s">
         <v>245</v>
@@ -4629,7 +4629,7 @@
         <v>27</v>
       </c>
       <c r="E168" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F168" t="s">
         <v>252</v>
@@ -4649,7 +4649,7 @@
         <v>74</v>
       </c>
       <c r="E169" s="2">
-        <v>13.89</v>
+        <v>-13.89</v>
       </c>
       <c r="F169" t="s">
         <v>244</v>
@@ -4669,7 +4669,7 @@
         <v>75</v>
       </c>
       <c r="E170" s="2">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F170" t="s">
         <v>249</v>
@@ -4689,7 +4689,7 @@
         <v>68</v>
       </c>
       <c r="E171" s="2">
-        <v>12.72</v>
+        <v>-12.72</v>
       </c>
       <c r="F171" t="s">
         <v>228</v>
@@ -4709,7 +4709,7 @@
         <v>76</v>
       </c>
       <c r="E172" s="2">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F172" t="s">
         <v>244</v>
@@ -4729,7 +4729,7 @@
         <v>27</v>
       </c>
       <c r="E173" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F173" t="s">
         <v>252</v>
@@ -4749,7 +4749,7 @@
         <v>77</v>
       </c>
       <c r="E174" s="2">
-        <v>26.35</v>
+        <v>-26.35</v>
       </c>
       <c r="F174" t="s">
         <v>244</v>
@@ -4769,7 +4769,7 @@
         <v>35</v>
       </c>
       <c r="E175" s="2">
-        <v>16.75</v>
+        <v>-16.75</v>
       </c>
       <c r="F175" t="s">
         <v>235</v>
@@ -4789,7 +4789,7 @@
         <v>26</v>
       </c>
       <c r="E176" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F176" t="s">
         <v>246</v>
@@ -4809,7 +4809,7 @@
         <v>78</v>
       </c>
       <c r="E177" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F177" t="s">
         <v>252</v>
@@ -4829,7 +4829,7 @@
         <v>27</v>
       </c>
       <c r="E178" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F178" t="s">
         <v>252</v>
@@ -4849,7 +4849,7 @@
         <v>27</v>
       </c>
       <c r="E179" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F179" t="s">
         <v>252</v>
@@ -4869,7 +4869,7 @@
         <v>29</v>
       </c>
       <c r="E180" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F180" t="s">
         <v>228</v>
@@ -4889,7 +4889,7 @@
         <v>27</v>
       </c>
       <c r="E181" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F181" t="s">
         <v>252</v>
@@ -4909,7 +4909,7 @@
         <v>27</v>
       </c>
       <c r="E182" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F182" t="s">
         <v>252</v>
@@ -4929,7 +4929,7 @@
         <v>29</v>
       </c>
       <c r="E183" s="2">
-        <v>4.59</v>
+        <v>-4.59</v>
       </c>
       <c r="F183" t="s">
         <v>228</v>
@@ -4949,7 +4949,7 @@
         <v>31</v>
       </c>
       <c r="E184" s="2">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="F184" t="s">
         <v>243</v>
@@ -4969,7 +4969,7 @@
         <v>27</v>
       </c>
       <c r="E185" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F185" t="s">
         <v>252</v>
@@ -4989,7 +4989,7 @@
         <v>36</v>
       </c>
       <c r="E186" s="2">
-        <v>5.36</v>
+        <v>-5.36</v>
       </c>
       <c r="F186" t="s">
         <v>228</v>
@@ -5009,7 +5009,7 @@
         <v>27</v>
       </c>
       <c r="E187" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F187" t="s">
         <v>252</v>
@@ -5029,7 +5029,7 @@
         <v>29</v>
       </c>
       <c r="E188" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F188" t="s">
         <v>228</v>
@@ -5049,7 +5049,7 @@
         <v>33</v>
       </c>
       <c r="E189" s="2">
-        <v>3.52</v>
+        <v>-3.52</v>
       </c>
       <c r="F189" t="s">
         <v>228</v>
@@ -5069,7 +5069,7 @@
         <v>27</v>
       </c>
       <c r="E190" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F190" t="s">
         <v>252</v>
@@ -5089,7 +5089,7 @@
         <v>79</v>
       </c>
       <c r="E191" s="2">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F191" t="s">
         <v>231</v>
@@ -5109,7 +5109,7 @@
         <v>29</v>
       </c>
       <c r="E192" s="2">
-        <v>4.49</v>
+        <v>-4.49</v>
       </c>
       <c r="F192" t="s">
         <v>228</v>
@@ -5129,7 +5129,7 @@
         <v>27</v>
       </c>
       <c r="E193" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F193" t="s">
         <v>252</v>
@@ -5149,7 +5149,7 @@
         <v>80</v>
       </c>
       <c r="E194" s="2">
-        <v>20.74</v>
+        <v>-20.74</v>
       </c>
       <c r="F194" t="s">
         <v>243</v>
@@ -5169,7 +5169,7 @@
         <v>27</v>
       </c>
       <c r="E195" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F195" t="s">
         <v>252</v>
@@ -5189,7 +5189,7 @@
         <v>81</v>
       </c>
       <c r="E196" s="2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F196" t="s">
         <v>249</v>
@@ -5209,7 +5209,7 @@
         <v>27</v>
       </c>
       <c r="E197" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F197" t="s">
         <v>252</v>
@@ -5229,7 +5229,7 @@
         <v>29</v>
       </c>
       <c r="E198" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F198" t="s">
         <v>228</v>
@@ -5249,7 +5249,7 @@
         <v>82</v>
       </c>
       <c r="E199" s="2">
-        <v>16.77</v>
+        <v>-16.77</v>
       </c>
       <c r="F199" t="s">
         <v>228</v>
@@ -5269,7 +5269,7 @@
         <v>27</v>
       </c>
       <c r="E200" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F200" t="s">
         <v>252</v>
@@ -5289,7 +5289,7 @@
         <v>27</v>
       </c>
       <c r="E201" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F201" t="s">
         <v>252</v>
@@ -5309,7 +5309,7 @@
         <v>29</v>
       </c>
       <c r="E202" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F202" t="s">
         <v>228</v>
@@ -5329,7 +5329,7 @@
         <v>66</v>
       </c>
       <c r="E203" s="2">
-        <v>3.68</v>
+        <v>-3.68</v>
       </c>
       <c r="F203" t="s">
         <v>228</v>
@@ -5349,7 +5349,7 @@
         <v>83</v>
       </c>
       <c r="E204" s="2">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F204" t="s">
         <v>230</v>
@@ -5369,7 +5369,7 @@
         <v>10</v>
       </c>
       <c r="E205" s="2">
-        <v>10.75</v>
+        <v>-10.75</v>
       </c>
       <c r="F205" t="s">
         <v>246</v>
@@ -5389,7 +5389,7 @@
         <v>84</v>
       </c>
       <c r="E206" s="2">
-        <v>26.77</v>
+        <v>-26.77</v>
       </c>
       <c r="F206" t="s">
         <v>245</v>
@@ -5409,7 +5409,7 @@
         <v>85</v>
       </c>
       <c r="E207" s="2">
-        <v>13.56</v>
+        <v>-13.56</v>
       </c>
       <c r="F207" t="s">
         <v>235</v>
@@ -5429,7 +5429,7 @@
         <v>10</v>
       </c>
       <c r="E208" s="2">
-        <v>10.75</v>
+        <v>-10.75</v>
       </c>
       <c r="F208" t="s">
         <v>246</v>
@@ -5449,7 +5449,7 @@
         <v>86</v>
       </c>
       <c r="E209" s="2">
-        <v>39.57</v>
+        <v>-39.57</v>
       </c>
       <c r="F209" t="s">
         <v>244</v>
@@ -5469,7 +5469,7 @@
         <v>87</v>
       </c>
       <c r="E210" s="2">
-        <v>44.04</v>
+        <v>-44.04</v>
       </c>
       <c r="F210" t="s">
         <v>234</v>
@@ -5489,7 +5489,7 @@
         <v>88</v>
       </c>
       <c r="E211" s="2">
-        <v>6.52</v>
+        <v>-6.52</v>
       </c>
       <c r="F211" t="s">
         <v>228</v>
@@ -5509,7 +5509,7 @@
         <v>89</v>
       </c>
       <c r="E212" s="2">
-        <v>2.89</v>
+        <v>-2.89</v>
       </c>
       <c r="F212" t="s">
         <v>243</v>
@@ -5529,7 +5529,7 @@
         <v>90</v>
       </c>
       <c r="E213" s="2">
-        <v>69.63</v>
+        <v>-69.63</v>
       </c>
       <c r="F213" t="s">
         <v>244</v>
@@ -5549,7 +5549,7 @@
         <v>77</v>
       </c>
       <c r="E214" s="2">
-        <v>26.35</v>
+        <v>-26.35</v>
       </c>
       <c r="F214" t="s">
         <v>244</v>
@@ -5569,7 +5569,7 @@
         <v>91</v>
       </c>
       <c r="E215" s="2">
-        <v>16.670000000000002</v>
+        <v>-16.670000000000002</v>
       </c>
       <c r="F215" t="s">
         <v>235</v>
@@ -5589,7 +5589,7 @@
         <v>27</v>
       </c>
       <c r="E216" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F216" t="s">
         <v>252</v>
@@ -5609,7 +5609,7 @@
         <v>27</v>
       </c>
       <c r="E217" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F217" t="s">
         <v>252</v>
@@ -5629,7 +5629,7 @@
         <v>27</v>
       </c>
       <c r="E218" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F218" t="s">
         <v>252</v>
@@ -5649,7 +5649,7 @@
         <v>32</v>
       </c>
       <c r="E219" s="2">
-        <v>4.9000000000000004</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="F219" t="s">
         <v>235</v>
@@ -5669,7 +5669,7 @@
         <v>61</v>
       </c>
       <c r="E220" s="2">
-        <v>6.8</v>
+        <v>-6.8</v>
       </c>
       <c r="F220" t="s">
         <v>255</v>
@@ -5689,7 +5689,7 @@
         <v>27</v>
       </c>
       <c r="E221" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F221" t="s">
         <v>252</v>
@@ -5709,7 +5709,7 @@
         <v>92</v>
       </c>
       <c r="E222" s="2">
-        <v>9.6999999999999993</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="F222" t="s">
         <v>228</v>
@@ -5729,7 +5729,7 @@
         <v>27</v>
       </c>
       <c r="E223" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F223" t="s">
         <v>252</v>
@@ -5749,7 +5749,7 @@
         <v>27</v>
       </c>
       <c r="E224" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F224" t="s">
         <v>252</v>
@@ -5769,7 +5769,7 @@
         <v>29</v>
       </c>
       <c r="E225" s="2">
-        <v>3.79</v>
+        <v>-3.79</v>
       </c>
       <c r="F225" t="s">
         <v>228</v>
@@ -5789,7 +5789,7 @@
         <v>93</v>
       </c>
       <c r="E226" s="2">
-        <v>17.41</v>
+        <v>-17.41</v>
       </c>
       <c r="F226" t="s">
         <v>233</v>
@@ -5809,7 +5809,7 @@
         <v>94</v>
       </c>
       <c r="E227" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F227" t="s">
         <v>228</v>
@@ -5829,7 +5829,7 @@
         <v>95</v>
       </c>
       <c r="E228" s="2">
-        <v>85.15</v>
+        <v>-85.15</v>
       </c>
       <c r="F228" t="s">
         <v>256</v>
@@ -5849,7 +5849,7 @@
         <v>10</v>
       </c>
       <c r="E229" s="2">
-        <v>175</v>
+        <v>-175</v>
       </c>
       <c r="F229" t="s">
         <v>246</v>
@@ -5869,7 +5869,7 @@
         <v>27</v>
       </c>
       <c r="E230" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F230" t="s">
         <v>252</v>
@@ -5889,7 +5889,7 @@
         <v>10</v>
       </c>
       <c r="E231" s="2">
-        <v>110.5</v>
+        <v>-110.5</v>
       </c>
       <c r="F231" t="s">
         <v>246</v>
@@ -5909,7 +5909,7 @@
         <v>27</v>
       </c>
       <c r="E232" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F232" t="s">
         <v>252</v>
@@ -5929,7 +5929,7 @@
         <v>36</v>
       </c>
       <c r="E233" s="2">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
       <c r="F233" t="s">
         <v>228</v>
@@ -5949,7 +5949,7 @@
         <v>28</v>
       </c>
       <c r="E234" s="2">
-        <v>2.89</v>
+        <v>-2.89</v>
       </c>
       <c r="F234" t="s">
         <v>255</v>
@@ -5969,7 +5969,7 @@
         <v>84</v>
       </c>
       <c r="E235" s="2">
-        <v>24.43</v>
+        <v>-24.43</v>
       </c>
       <c r="F235" t="s">
         <v>245</v>
@@ -5989,7 +5989,7 @@
         <v>27</v>
       </c>
       <c r="E236" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F236" t="s">
         <v>252</v>
@@ -6009,7 +6009,7 @@
         <v>29</v>
       </c>
       <c r="E237" s="2">
-        <v>4.59</v>
+        <v>-4.59</v>
       </c>
       <c r="F237" t="s">
         <v>228</v>
@@ -6029,7 +6029,7 @@
         <v>27</v>
       </c>
       <c r="E238" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F238" t="s">
         <v>252</v>
@@ -6049,7 +6049,7 @@
         <v>27</v>
       </c>
       <c r="E239" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F239" t="s">
         <v>252</v>
@@ -6069,7 +6069,7 @@
         <v>27</v>
       </c>
       <c r="E240" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F240" t="s">
         <v>252</v>
@@ -6089,7 +6089,7 @@
         <v>52</v>
       </c>
       <c r="E241" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F241" t="s">
         <v>246</v>
@@ -6109,7 +6109,7 @@
         <v>84</v>
       </c>
       <c r="E242" s="2">
-        <v>20.99</v>
+        <v>-20.99</v>
       </c>
       <c r="F242" t="s">
         <v>245</v>
@@ -6129,7 +6129,7 @@
         <v>96</v>
       </c>
       <c r="E243" s="2">
-        <v>42</v>
+        <v>-42</v>
       </c>
       <c r="F243" t="s">
         <v>234</v>
@@ -6149,7 +6149,7 @@
         <v>97</v>
       </c>
       <c r="E244" s="2">
-        <v>10.82</v>
+        <v>-10.82</v>
       </c>
       <c r="F244" t="s">
         <v>253</v>
@@ -6169,7 +6169,7 @@
         <v>98</v>
       </c>
       <c r="E245" s="2">
-        <v>5.42</v>
+        <v>-5.42</v>
       </c>
       <c r="F245" t="s">
         <v>235</v>
@@ -6189,7 +6189,7 @@
         <v>39</v>
       </c>
       <c r="E246" s="2">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F246" t="s">
         <v>249</v>
@@ -6209,7 +6209,7 @@
         <v>44</v>
       </c>
       <c r="E247" s="2">
-        <v>1.08</v>
+        <v>-1.08</v>
       </c>
       <c r="F247" t="s">
         <v>245</v>
@@ -6229,7 +6229,7 @@
         <v>27</v>
       </c>
       <c r="E248" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F248" t="s">
         <v>252</v>
@@ -6249,7 +6249,7 @@
         <v>99</v>
       </c>
       <c r="E249" s="2">
-        <v>5.98</v>
+        <v>-5.98</v>
       </c>
       <c r="F249" t="s">
         <v>228</v>
@@ -6269,7 +6269,7 @@
         <v>27</v>
       </c>
       <c r="E250" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F250" t="s">
         <v>252</v>
@@ -6289,7 +6289,7 @@
         <v>26</v>
       </c>
       <c r="E251" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F251" t="s">
         <v>246</v>
@@ -6309,7 +6309,7 @@
         <v>27</v>
       </c>
       <c r="E252" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F252" t="s">
         <v>252</v>
@@ -6329,7 +6329,7 @@
         <v>27</v>
       </c>
       <c r="E253" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F253" t="s">
         <v>252</v>
@@ -6349,7 +6349,7 @@
         <v>44</v>
       </c>
       <c r="E254" s="2">
-        <v>23.95</v>
+        <v>-23.95</v>
       </c>
       <c r="F254" t="s">
         <v>245</v>
@@ -6369,7 +6369,7 @@
         <v>44</v>
       </c>
       <c r="E255" s="2">
-        <v>33.450000000000003</v>
+        <v>-33.450000000000003</v>
       </c>
       <c r="F255" t="s">
         <v>245</v>
@@ -6389,7 +6389,7 @@
         <v>27</v>
       </c>
       <c r="E256" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F256" t="s">
         <v>252</v>
@@ -6409,7 +6409,7 @@
         <v>36</v>
       </c>
       <c r="E257" s="2">
-        <v>8.99</v>
+        <v>-8.99</v>
       </c>
       <c r="F257" t="s">
         <v>228</v>
@@ -6429,7 +6429,7 @@
         <v>27</v>
       </c>
       <c r="E258" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F258" t="s">
         <v>252</v>
@@ -6449,7 +6449,7 @@
         <v>100</v>
       </c>
       <c r="E259" s="2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F259" t="s">
         <v>249</v>
@@ -6469,7 +6469,7 @@
         <v>101</v>
       </c>
       <c r="E260" s="2">
-        <v>5.31</v>
+        <v>-5.31</v>
       </c>
       <c r="F260" t="s">
         <v>229</v>
@@ -6489,7 +6489,7 @@
         <v>63</v>
       </c>
       <c r="E261" s="2">
-        <v>19.98</v>
+        <v>-19.98</v>
       </c>
       <c r="F261" t="s">
         <v>228</v>
@@ -6509,7 +6509,7 @@
         <v>102</v>
       </c>
       <c r="E262" s="2">
-        <v>7.78</v>
+        <v>-7.78</v>
       </c>
       <c r="F262" t="s">
         <v>235</v>
@@ -6529,7 +6529,7 @@
         <v>103</v>
       </c>
       <c r="E263" s="2">
-        <v>2.27</v>
+        <v>-2.27</v>
       </c>
       <c r="F263" t="s">
         <v>228</v>
@@ -6549,7 +6549,7 @@
         <v>27</v>
       </c>
       <c r="E264" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F264" t="s">
         <v>252</v>
@@ -6569,7 +6569,7 @@
         <v>27</v>
       </c>
       <c r="E265" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F265" t="s">
         <v>252</v>
@@ -6589,7 +6589,7 @@
         <v>10</v>
       </c>
       <c r="E266" s="2">
-        <v>175</v>
+        <v>-175</v>
       </c>
       <c r="F266" t="s">
         <v>246</v>
@@ -6609,7 +6609,7 @@
         <v>104</v>
       </c>
       <c r="E267" s="2">
-        <v>35.380000000000003</v>
+        <v>-35.380000000000003</v>
       </c>
       <c r="F267" t="s">
         <v>244</v>
@@ -6629,7 +6629,7 @@
         <v>27</v>
       </c>
       <c r="E268" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F268" t="s">
         <v>252</v>
@@ -6649,7 +6649,7 @@
         <v>36</v>
       </c>
       <c r="E269" s="2">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
       <c r="F269" t="s">
         <v>228</v>
@@ -6669,7 +6669,7 @@
         <v>32</v>
       </c>
       <c r="E270" s="2">
-        <v>4.9000000000000004</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="F270" t="s">
         <v>229</v>
@@ -6689,7 +6689,7 @@
         <v>27</v>
       </c>
       <c r="E271" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F271" t="s">
         <v>252</v>
@@ -6709,7 +6709,7 @@
         <v>27</v>
       </c>
       <c r="E272" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F272" t="s">
         <v>252</v>
@@ -6729,7 +6729,7 @@
         <v>105</v>
       </c>
       <c r="E273" s="2">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F273" t="s">
         <v>255</v>
@@ -6749,7 +6749,7 @@
         <v>27</v>
       </c>
       <c r="E274" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F274" t="s">
         <v>252</v>
@@ -6769,7 +6769,7 @@
         <v>106</v>
       </c>
       <c r="E275" s="2">
-        <v>32.71</v>
+        <v>-32.71</v>
       </c>
       <c r="F275" t="s">
         <v>233</v>
@@ -6789,7 +6789,7 @@
         <v>69</v>
       </c>
       <c r="E276" s="2">
-        <v>2.89</v>
+        <v>-2.89</v>
       </c>
       <c r="F276" t="s">
         <v>228</v>
@@ -6809,7 +6809,7 @@
         <v>27</v>
       </c>
       <c r="E277" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F277" t="s">
         <v>252</v>
@@ -6829,7 +6829,7 @@
         <v>36</v>
       </c>
       <c r="E278" s="2">
-        <v>10.48</v>
+        <v>-10.48</v>
       </c>
       <c r="F278" t="s">
         <v>228</v>
@@ -6849,7 +6849,7 @@
         <v>27</v>
       </c>
       <c r="E279" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F279" t="s">
         <v>252</v>
@@ -6869,7 +6869,7 @@
         <v>107</v>
       </c>
       <c r="E280" s="2">
-        <v>11.83</v>
+        <v>-11.83</v>
       </c>
       <c r="F280" t="s">
         <v>255</v>
@@ -6889,7 +6889,7 @@
         <v>108</v>
       </c>
       <c r="E281" s="2">
-        <v>9.01</v>
+        <v>-9.01</v>
       </c>
       <c r="F281" t="s">
         <v>229</v>
@@ -6909,7 +6909,7 @@
         <v>109</v>
       </c>
       <c r="E282" s="2">
-        <v>8.06</v>
+        <v>-8.06</v>
       </c>
       <c r="F282" t="s">
         <v>254</v>
@@ -6929,7 +6929,7 @@
         <v>110</v>
       </c>
       <c r="E283" s="2">
-        <v>5.99</v>
+        <v>-5.99</v>
       </c>
       <c r="F283" t="s">
         <v>235</v>
@@ -6949,7 +6949,7 @@
         <v>111</v>
       </c>
       <c r="E284" s="2">
-        <v>10.6</v>
+        <v>-10.6</v>
       </c>
       <c r="F284" t="s">
         <v>244</v>
@@ -6969,7 +6969,7 @@
         <v>112</v>
       </c>
       <c r="E285" s="2">
-        <v>9.64</v>
+        <v>-9.64</v>
       </c>
       <c r="F285" t="s">
         <v>229</v>
@@ -6989,7 +6989,7 @@
         <v>52</v>
       </c>
       <c r="E286" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F286" t="s">
         <v>246</v>
@@ -7009,7 +7009,7 @@
         <v>27</v>
       </c>
       <c r="E287" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F287" t="s">
         <v>252</v>
@@ -7029,7 +7029,7 @@
         <v>27</v>
       </c>
       <c r="E288" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F288" t="s">
         <v>252</v>
@@ -7049,7 +7049,7 @@
         <v>113</v>
       </c>
       <c r="E289" s="2">
-        <v>108.61</v>
+        <v>-108.61</v>
       </c>
       <c r="F289" t="s">
         <v>247</v>
@@ -7069,7 +7069,7 @@
         <v>114</v>
       </c>
       <c r="E290" s="2">
-        <v>55</v>
+        <v>-55</v>
       </c>
       <c r="F290" t="s">
         <v>231</v>
@@ -7089,7 +7089,7 @@
         <v>114</v>
       </c>
       <c r="E291" s="2">
-        <v>196.98</v>
+        <v>-196.98</v>
       </c>
       <c r="F291" t="s">
         <v>231</v>
@@ -7109,7 +7109,7 @@
         <v>27</v>
       </c>
       <c r="E292" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F292" t="s">
         <v>252</v>
@@ -7129,7 +7129,7 @@
         <v>27</v>
       </c>
       <c r="E293" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F293" t="s">
         <v>252</v>
@@ -7149,7 +7149,7 @@
         <v>28</v>
       </c>
       <c r="E294" s="2">
-        <v>5.54</v>
+        <v>-5.54</v>
       </c>
       <c r="F294" t="s">
         <v>255</v>
@@ -7169,7 +7169,7 @@
         <v>27</v>
       </c>
       <c r="E295" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F295" t="s">
         <v>252</v>
@@ -7189,7 +7189,7 @@
         <v>115</v>
       </c>
       <c r="E296" s="2">
-        <v>4.58</v>
+        <v>-4.58</v>
       </c>
       <c r="F296" t="s">
         <v>228</v>
@@ -7209,7 +7209,7 @@
         <v>116</v>
       </c>
       <c r="E297" s="2">
-        <v>6.47</v>
+        <v>-6.47</v>
       </c>
       <c r="F297" t="s">
         <v>229</v>
@@ -7229,7 +7229,7 @@
         <v>82</v>
       </c>
       <c r="E298" s="2">
-        <v>3.98</v>
+        <v>-3.98</v>
       </c>
       <c r="F298" t="s">
         <v>228</v>
@@ -7249,7 +7249,7 @@
         <v>27</v>
       </c>
       <c r="E299" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F299" t="s">
         <v>252</v>
@@ -7269,7 +7269,7 @@
         <v>36</v>
       </c>
       <c r="E300" s="2">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
       <c r="F300" t="s">
         <v>228</v>
@@ -7289,7 +7289,7 @@
         <v>27</v>
       </c>
       <c r="E301" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F301" t="s">
         <v>252</v>
@@ -7309,7 +7309,7 @@
         <v>39</v>
       </c>
       <c r="E302" s="2">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F302" t="s">
         <v>249</v>
@@ -7329,7 +7329,7 @@
         <v>117</v>
       </c>
       <c r="E303" s="2">
-        <v>27.36</v>
+        <v>-27.36</v>
       </c>
       <c r="F303" t="s">
         <v>235</v>
@@ -7349,7 +7349,7 @@
         <v>26</v>
       </c>
       <c r="E304" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F304" t="s">
         <v>246</v>
@@ -7369,7 +7369,7 @@
         <v>118</v>
       </c>
       <c r="E305" s="2">
-        <v>110.5</v>
+        <v>-110.5</v>
       </c>
       <c r="F305" t="s">
         <v>232</v>
@@ -7389,7 +7389,7 @@
         <v>44</v>
       </c>
       <c r="E306" s="2">
-        <v>45.87</v>
+        <v>-45.87</v>
       </c>
       <c r="F306" t="s">
         <v>245</v>
@@ -7409,7 +7409,7 @@
         <v>119</v>
       </c>
       <c r="E307" s="2">
-        <v>11.94</v>
+        <v>-11.94</v>
       </c>
       <c r="F307" t="s">
         <v>235</v>
@@ -7429,7 +7429,7 @@
         <v>44</v>
       </c>
       <c r="E308" s="2">
-        <v>9.8699999999999992</v>
+        <v>-9.8699999999999992</v>
       </c>
       <c r="F308" t="s">
         <v>245</v>
@@ -7449,7 +7449,7 @@
         <v>10</v>
       </c>
       <c r="E309" s="2">
-        <v>35</v>
+        <v>-35</v>
       </c>
       <c r="F309" t="s">
         <v>246</v>
@@ -7469,7 +7469,7 @@
         <v>27</v>
       </c>
       <c r="E310" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F310" t="s">
         <v>252</v>
@@ -7489,7 +7489,7 @@
         <v>27</v>
       </c>
       <c r="E311" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F311" t="s">
         <v>252</v>
@@ -7509,7 +7509,7 @@
         <v>10</v>
       </c>
       <c r="E312" s="2">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F312" t="s">
         <v>246</v>
@@ -7529,7 +7529,7 @@
         <v>120</v>
       </c>
       <c r="E313" s="2">
-        <v>15.2</v>
+        <v>-15.2</v>
       </c>
       <c r="F313" t="s">
         <v>244</v>
@@ -7549,7 +7549,7 @@
         <v>27</v>
       </c>
       <c r="E314" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F314" t="s">
         <v>252</v>
@@ -7569,7 +7569,7 @@
         <v>36</v>
       </c>
       <c r="E315" s="2">
-        <v>4.49</v>
+        <v>-4.49</v>
       </c>
       <c r="F315" t="s">
         <v>228</v>
@@ -7589,7 +7589,7 @@
         <v>27</v>
       </c>
       <c r="E316" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F316" t="s">
         <v>252</v>
@@ -7609,7 +7609,7 @@
         <v>121</v>
       </c>
       <c r="E317" s="2">
-        <v>32.99</v>
+        <v>-32.99</v>
       </c>
       <c r="F317" t="s">
         <v>235</v>
@@ -7629,7 +7629,7 @@
         <v>27</v>
       </c>
       <c r="E318" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F318" t="s">
         <v>252</v>
@@ -7649,7 +7649,7 @@
         <v>61</v>
       </c>
       <c r="E319" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F319" t="s">
         <v>255</v>
@@ -7669,7 +7669,7 @@
         <v>27</v>
       </c>
       <c r="E320" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F320" t="s">
         <v>252</v>
@@ -7689,7 +7689,7 @@
         <v>27</v>
       </c>
       <c r="E321" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F321" t="s">
         <v>252</v>
@@ -7709,7 +7709,7 @@
         <v>122</v>
       </c>
       <c r="E322" s="2">
-        <v>4.59</v>
+        <v>-4.59</v>
       </c>
       <c r="F322" t="s">
         <v>228</v>
@@ -7729,7 +7729,7 @@
         <v>123</v>
       </c>
       <c r="E323" s="2">
-        <v>24.92</v>
+        <v>-24.92</v>
       </c>
       <c r="F323" t="s">
         <v>253</v>
@@ -7749,7 +7749,7 @@
         <v>40</v>
       </c>
       <c r="E324" s="2">
-        <v>11.84</v>
+        <v>-11.84</v>
       </c>
       <c r="F324" t="s">
         <v>255</v>
@@ -7769,7 +7769,7 @@
         <v>41</v>
       </c>
       <c r="E325" s="2">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="F325" t="s">
         <v>235</v>
@@ -7789,7 +7789,7 @@
         <v>44</v>
       </c>
       <c r="E326" s="2">
-        <v>22.03</v>
+        <v>-22.03</v>
       </c>
       <c r="F326" t="s">
         <v>245</v>
@@ -7809,7 +7809,7 @@
         <v>124</v>
       </c>
       <c r="E327" s="2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F327" t="s">
         <v>249</v>
@@ -7829,7 +7829,7 @@
         <v>27</v>
       </c>
       <c r="E328" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F328" t="s">
         <v>252</v>
@@ -7849,7 +7849,7 @@
         <v>61</v>
       </c>
       <c r="E329" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F329" t="s">
         <v>255</v>
@@ -7869,7 +7869,7 @@
         <v>27</v>
       </c>
       <c r="E330" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F330" t="s">
         <v>252</v>
@@ -7889,7 +7889,7 @@
         <v>44</v>
       </c>
       <c r="E331" s="2">
-        <v>10.8</v>
+        <v>-10.8</v>
       </c>
       <c r="F331" t="s">
         <v>245</v>
@@ -7909,7 +7909,7 @@
         <v>44</v>
       </c>
       <c r="E332" s="2">
-        <v>9.65</v>
+        <v>-9.65</v>
       </c>
       <c r="F332" t="s">
         <v>245</v>
@@ -7929,7 +7929,7 @@
         <v>27</v>
       </c>
       <c r="E333" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F333" t="s">
         <v>252</v>
@@ -7949,7 +7949,7 @@
         <v>36</v>
       </c>
       <c r="E334" s="2">
-        <v>4.29</v>
+        <v>-4.29</v>
       </c>
       <c r="F334" t="s">
         <v>228</v>
@@ -7969,7 +7969,7 @@
         <v>27</v>
       </c>
       <c r="E335" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F335" t="s">
         <v>252</v>
@@ -7989,7 +7989,7 @@
         <v>27</v>
       </c>
       <c r="E336" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F336" t="s">
         <v>252</v>
@@ -8009,7 +8009,7 @@
         <v>27</v>
       </c>
       <c r="E337" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F337" t="s">
         <v>252</v>
@@ -8029,7 +8029,7 @@
         <v>125</v>
       </c>
       <c r="E338" s="2">
-        <v>18.43</v>
+        <v>-18.43</v>
       </c>
       <c r="F338" t="s">
         <v>235</v>
@@ -8049,7 +8049,7 @@
         <v>27</v>
       </c>
       <c r="E339" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F339" t="s">
         <v>252</v>
@@ -8069,7 +8069,7 @@
         <v>27</v>
       </c>
       <c r="E340" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F340" t="s">
         <v>252</v>
@@ -8089,7 +8089,7 @@
         <v>126</v>
       </c>
       <c r="E341" s="2">
-        <v>6.38</v>
+        <v>-6.38</v>
       </c>
       <c r="F341" t="s">
         <v>228</v>
@@ -8109,7 +8109,7 @@
         <v>110</v>
       </c>
       <c r="E342" s="2">
-        <v>23.71</v>
+        <v>-23.71</v>
       </c>
       <c r="F342" t="s">
         <v>235</v>
@@ -8129,7 +8129,7 @@
         <v>110</v>
       </c>
       <c r="E343" s="2">
-        <v>8.99</v>
+        <v>-8.99</v>
       </c>
       <c r="F343" t="s">
         <v>235</v>
@@ -8149,7 +8149,7 @@
         <v>127</v>
       </c>
       <c r="E344" s="2">
-        <v>22.98</v>
+        <v>-22.98</v>
       </c>
       <c r="F344" t="s">
         <v>244</v>
@@ -8169,7 +8169,7 @@
         <v>128</v>
       </c>
       <c r="E345" s="2">
-        <v>9.6999999999999993</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="F345" t="s">
         <v>253</v>
@@ -8189,7 +8189,7 @@
         <v>129</v>
       </c>
       <c r="E346" s="2">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F346" t="s">
         <v>235</v>
@@ -8209,7 +8209,7 @@
         <v>130</v>
       </c>
       <c r="E347" s="2">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F347" t="s">
         <v>235</v>
@@ -8229,7 +8229,7 @@
         <v>131</v>
       </c>
       <c r="E348" s="2">
-        <v>17.690000000000001</v>
+        <v>-17.690000000000001</v>
       </c>
       <c r="F348" t="s">
         <v>235</v>
@@ -8249,7 +8249,7 @@
         <v>132</v>
       </c>
       <c r="E349" s="2">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F349" t="s">
         <v>243</v>
@@ -8269,7 +8269,7 @@
         <v>133</v>
       </c>
       <c r="E350" s="2">
-        <v>4.93</v>
+        <v>-4.93</v>
       </c>
       <c r="F350" t="s">
         <v>244</v>
@@ -8289,7 +8289,7 @@
         <v>134</v>
       </c>
       <c r="E351" s="2">
-        <v>26.49</v>
+        <v>-26.49</v>
       </c>
       <c r="F351" t="s">
         <v>243</v>
@@ -8309,7 +8309,7 @@
         <v>135</v>
       </c>
       <c r="E352" s="2">
-        <v>2.54</v>
+        <v>-2.54</v>
       </c>
       <c r="F352" t="s">
         <v>244</v>
@@ -8329,7 +8329,7 @@
         <v>136</v>
       </c>
       <c r="E353" s="2">
-        <v>38.31</v>
+        <v>-38.31</v>
       </c>
       <c r="F353" t="s">
         <v>253</v>
@@ -8349,7 +8349,7 @@
         <v>137</v>
       </c>
       <c r="E354" s="2">
-        <v>14.39</v>
+        <v>-14.39</v>
       </c>
       <c r="F354" t="s">
         <v>229</v>
@@ -8369,7 +8369,7 @@
         <v>138</v>
       </c>
       <c r="E355" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F355" t="s">
         <v>229</v>
@@ -8389,7 +8389,7 @@
         <v>123</v>
       </c>
       <c r="E356" s="2">
-        <v>11.95</v>
+        <v>-11.95</v>
       </c>
       <c r="F356" t="s">
         <v>253</v>
@@ -8409,7 +8409,7 @@
         <v>27</v>
       </c>
       <c r="E357" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F357" t="s">
         <v>252</v>
@@ -8429,7 +8429,7 @@
         <v>61</v>
       </c>
       <c r="E358" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F358" t="s">
         <v>255</v>
@@ -8449,7 +8449,7 @@
         <v>27</v>
       </c>
       <c r="E359" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F359" t="s">
         <v>252</v>
@@ -8469,7 +8469,7 @@
         <v>139</v>
       </c>
       <c r="E360" s="2">
-        <v>33.46</v>
+        <v>-33.46</v>
       </c>
       <c r="F360" t="s">
         <v>229</v>
@@ -8489,7 +8489,7 @@
         <v>65</v>
       </c>
       <c r="E361" s="2">
-        <v>12.36</v>
+        <v>-12.36</v>
       </c>
       <c r="F361" t="s">
         <v>229</v>
@@ -8509,7 +8509,7 @@
         <v>140</v>
       </c>
       <c r="E362" s="2">
-        <v>4.95</v>
+        <v>-4.95</v>
       </c>
       <c r="F362" t="s">
         <v>230</v>
@@ -8529,7 +8529,7 @@
         <v>27</v>
       </c>
       <c r="E363" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F363" t="s">
         <v>252</v>
@@ -8549,7 +8549,7 @@
         <v>27</v>
       </c>
       <c r="E364" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F364" t="s">
         <v>252</v>
@@ -8569,7 +8569,7 @@
         <v>141</v>
       </c>
       <c r="E365" s="2">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F365" t="s">
         <v>246</v>
@@ -8589,7 +8589,7 @@
         <v>88</v>
       </c>
       <c r="E366" s="2">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="F366" t="s">
         <v>228</v>
@@ -8609,7 +8609,7 @@
         <v>27</v>
       </c>
       <c r="E367" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F367" t="s">
         <v>252</v>
@@ -8629,7 +8629,7 @@
         <v>36</v>
       </c>
       <c r="E368" s="2">
-        <v>4.29</v>
+        <v>-4.29</v>
       </c>
       <c r="F368" t="s">
         <v>228</v>
@@ -8649,7 +8649,7 @@
         <v>125</v>
       </c>
       <c r="E369" s="2">
-        <v>9.99</v>
+        <v>-9.99</v>
       </c>
       <c r="F369" t="s">
         <v>235</v>
@@ -8669,7 +8669,7 @@
         <v>27</v>
       </c>
       <c r="E370" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F370" t="s">
         <v>252</v>
@@ -8689,7 +8689,7 @@
         <v>40</v>
       </c>
       <c r="E371" s="2">
-        <v>11.84</v>
+        <v>-11.84</v>
       </c>
       <c r="F371" t="s">
         <v>255</v>
@@ -8709,7 +8709,7 @@
         <v>41</v>
       </c>
       <c r="E372" s="2">
-        <v>2.2200000000000002</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="F372" t="s">
         <v>235</v>
@@ -8729,7 +8729,7 @@
         <v>41</v>
       </c>
       <c r="E373" s="2">
-        <v>22.31</v>
+        <v>-22.31</v>
       </c>
       <c r="F373" t="s">
         <v>235</v>
@@ -8749,7 +8749,7 @@
         <v>123</v>
       </c>
       <c r="E374" s="2">
-        <v>22.84</v>
+        <v>-22.84</v>
       </c>
       <c r="F374" t="s">
         <v>253</v>
@@ -8769,7 +8769,7 @@
         <v>142</v>
       </c>
       <c r="E375" s="2">
-        <v>35</v>
+        <v>-35</v>
       </c>
       <c r="F375" t="s">
         <v>230</v>
@@ -8789,7 +8789,7 @@
         <v>143</v>
       </c>
       <c r="E376" s="2">
-        <v>106.72</v>
+        <v>-106.72</v>
       </c>
       <c r="F376" t="s">
         <v>234</v>
@@ -8809,7 +8809,7 @@
         <v>144</v>
       </c>
       <c r="E377" s="2">
-        <v>135.77000000000001</v>
+        <v>-135.77000000000001</v>
       </c>
       <c r="F377" t="s">
         <v>230</v>
@@ -8829,7 +8829,7 @@
         <v>145</v>
       </c>
       <c r="E378" s="2">
-        <v>91.23</v>
+        <v>-91.23</v>
       </c>
       <c r="F378" t="s">
         <v>234</v>
@@ -8849,7 +8849,7 @@
         <v>146</v>
       </c>
       <c r="E379" s="2">
-        <v>6.18</v>
+        <v>-6.18</v>
       </c>
       <c r="F379" t="s">
         <v>229</v>
@@ -8869,7 +8869,7 @@
         <v>27</v>
       </c>
       <c r="E380" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F380" t="s">
         <v>252</v>
@@ -8889,7 +8889,7 @@
         <v>36</v>
       </c>
       <c r="E381" s="2">
-        <v>7.28</v>
+        <v>-7.28</v>
       </c>
       <c r="F381" t="s">
         <v>228</v>
@@ -8909,7 +8909,7 @@
         <v>27</v>
       </c>
       <c r="E382" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F382" t="s">
         <v>252</v>
@@ -8929,7 +8929,7 @@
         <v>147</v>
       </c>
       <c r="E383" s="2">
-        <v>3.99</v>
+        <v>-3.99</v>
       </c>
       <c r="F383" t="s">
         <v>243</v>
@@ -8949,7 +8949,7 @@
         <v>27</v>
       </c>
       <c r="E384" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F384" t="s">
         <v>252</v>
@@ -8969,7 +8969,7 @@
         <v>27</v>
       </c>
       <c r="E385" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F385" t="s">
         <v>252</v>
@@ -8989,7 +8989,7 @@
         <v>27</v>
       </c>
       <c r="E386" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F386" t="s">
         <v>252</v>
@@ -9009,7 +9009,7 @@
         <v>27</v>
       </c>
       <c r="E387" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F387" t="s">
         <v>252</v>
@@ -9029,7 +9029,7 @@
         <v>148</v>
       </c>
       <c r="E388" s="2">
-        <v>149.88999999999999</v>
+        <v>-149.88999999999999</v>
       </c>
       <c r="F388" t="s">
         <v>234</v>
@@ -9049,7 +9049,7 @@
         <v>149</v>
       </c>
       <c r="E389" s="2">
-        <v>17.25</v>
+        <v>-17.25</v>
       </c>
       <c r="F389" t="s">
         <v>229</v>
@@ -9069,7 +9069,7 @@
         <v>52</v>
       </c>
       <c r="E390" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F390" t="s">
         <v>246</v>
@@ -9089,7 +9089,7 @@
         <v>61</v>
       </c>
       <c r="E391" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F391" t="s">
         <v>255</v>
@@ -9109,7 +9109,7 @@
         <v>150</v>
       </c>
       <c r="E392" s="2">
-        <v>4.29</v>
+        <v>-4.29</v>
       </c>
       <c r="F392" t="s">
         <v>230</v>
@@ -9129,7 +9129,7 @@
         <v>151</v>
       </c>
       <c r="E393" s="2">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="F393" t="s">
         <v>231</v>
@@ -9149,7 +9149,7 @@
         <v>40</v>
       </c>
       <c r="E394" s="2">
-        <v>11.84</v>
+        <v>-11.84</v>
       </c>
       <c r="F394" t="s">
         <v>255</v>
@@ -9169,7 +9169,7 @@
         <v>41</v>
       </c>
       <c r="E395" s="2">
-        <v>3.99</v>
+        <v>-3.99</v>
       </c>
       <c r="F395" t="s">
         <v>235</v>
@@ -9189,7 +9189,7 @@
         <v>41</v>
       </c>
       <c r="E396" s="2">
-        <v>10.48</v>
+        <v>-10.48</v>
       </c>
       <c r="F396" t="s">
         <v>235</v>
@@ -9209,7 +9209,7 @@
         <v>152</v>
       </c>
       <c r="E397" s="2">
-        <v>65.94</v>
+        <v>-65.94</v>
       </c>
       <c r="F397" t="s">
         <v>229</v>
@@ -9229,7 +9229,7 @@
         <v>153</v>
       </c>
       <c r="E398" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F398" t="s">
         <v>255</v>
@@ -9249,7 +9249,7 @@
         <v>103</v>
       </c>
       <c r="E399" s="2">
-        <v>11.08</v>
+        <v>-11.08</v>
       </c>
       <c r="F399" t="s">
         <v>228</v>
@@ -9269,7 +9269,7 @@
         <v>15</v>
       </c>
       <c r="E400" s="2">
-        <v>18.5</v>
+        <v>-18.5</v>
       </c>
       <c r="F400" t="s">
         <v>228</v>
@@ -9289,7 +9289,7 @@
         <v>27</v>
       </c>
       <c r="E401" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F401" t="s">
         <v>252</v>
@@ -9309,7 +9309,7 @@
         <v>27</v>
       </c>
       <c r="E402" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F402" t="s">
         <v>252</v>
@@ -9329,7 +9329,7 @@
         <v>84</v>
       </c>
       <c r="E403" s="2">
-        <v>41.84</v>
+        <v>-41.84</v>
       </c>
       <c r="F403" t="s">
         <v>245</v>
@@ -9349,7 +9349,7 @@
         <v>98</v>
       </c>
       <c r="E404" s="2">
-        <v>10.56</v>
+        <v>-10.56</v>
       </c>
       <c r="F404" t="s">
         <v>235</v>
@@ -9369,7 +9369,7 @@
         <v>26</v>
       </c>
       <c r="E405" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F405" t="s">
         <v>246</v>
@@ -9389,7 +9389,7 @@
         <v>61</v>
       </c>
       <c r="E406" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F406" t="s">
         <v>255</v>
@@ -9409,7 +9409,7 @@
         <v>27</v>
       </c>
       <c r="E407" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F407" t="s">
         <v>252</v>
@@ -9429,7 +9429,7 @@
         <v>27</v>
       </c>
       <c r="E408" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F408" t="s">
         <v>252</v>
@@ -9449,7 +9449,7 @@
         <v>27</v>
       </c>
       <c r="E409" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F409" t="s">
         <v>252</v>
@@ -9469,7 +9469,7 @@
         <v>65</v>
       </c>
       <c r="E410" s="2">
-        <v>14.7</v>
+        <v>-14.7</v>
       </c>
       <c r="F410" t="s">
         <v>229</v>
@@ -9489,7 +9489,7 @@
         <v>27</v>
       </c>
       <c r="E411" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F411" t="s">
         <v>252</v>
@@ -9509,7 +9509,7 @@
         <v>154</v>
       </c>
       <c r="E412" s="2">
-        <v>3.52</v>
+        <v>-3.52</v>
       </c>
       <c r="F412" t="s">
         <v>244</v>
@@ -9529,7 +9529,7 @@
         <v>27</v>
       </c>
       <c r="E413" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F413" t="s">
         <v>252</v>
@@ -9549,7 +9549,7 @@
         <v>10</v>
       </c>
       <c r="E414" s="2">
-        <v>17.5</v>
+        <v>-17.5</v>
       </c>
       <c r="F414" t="s">
         <v>246</v>
@@ -9569,7 +9569,7 @@
         <v>19</v>
       </c>
       <c r="E415" s="2">
-        <v>2.74</v>
+        <v>-2.74</v>
       </c>
       <c r="F415" t="s">
         <v>228</v>
@@ -9589,7 +9589,7 @@
         <v>121</v>
       </c>
       <c r="E416" s="2">
-        <v>9.52</v>
+        <v>-9.52</v>
       </c>
       <c r="F416" t="s">
         <v>235</v>
@@ -9609,7 +9609,7 @@
         <v>155</v>
       </c>
       <c r="E417" s="2">
-        <v>12.78</v>
+        <v>-12.78</v>
       </c>
       <c r="F417" t="s">
         <v>235</v>
@@ -9629,7 +9629,7 @@
         <v>44</v>
       </c>
       <c r="E418" s="2">
-        <v>9.67</v>
+        <v>-9.67</v>
       </c>
       <c r="F418" t="s">
         <v>245</v>
@@ -9649,7 +9649,7 @@
         <v>156</v>
       </c>
       <c r="E419" s="2">
-        <v>7.59</v>
+        <v>-7.59</v>
       </c>
       <c r="F419" t="s">
         <v>258</v>
@@ -9669,7 +9669,7 @@
         <v>10</v>
       </c>
       <c r="E420" s="2">
-        <v>341</v>
+        <v>-341</v>
       </c>
       <c r="F420" t="s">
         <v>246</v>
@@ -9689,7 +9689,7 @@
         <v>27</v>
       </c>
       <c r="E421" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F421" t="s">
         <v>252</v>
@@ -9709,7 +9709,7 @@
         <v>89</v>
       </c>
       <c r="E422" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F422" t="s">
         <v>258</v>
@@ -9729,7 +9729,7 @@
         <v>89</v>
       </c>
       <c r="E423" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F423" t="s">
         <v>258</v>
@@ -9749,7 +9749,7 @@
         <v>27</v>
       </c>
       <c r="E424" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F424" t="s">
         <v>252</v>
@@ -9769,7 +9769,7 @@
         <v>157</v>
       </c>
       <c r="E425" s="2">
-        <v>5.99</v>
+        <v>-5.99</v>
       </c>
       <c r="F425" t="s">
         <v>245</v>
@@ -9789,7 +9789,7 @@
         <v>44</v>
       </c>
       <c r="E426" s="2">
-        <v>19.98</v>
+        <v>-19.98</v>
       </c>
       <c r="F426" t="s">
         <v>245</v>
@@ -9809,7 +9809,7 @@
         <v>27</v>
       </c>
       <c r="E427" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F427" t="s">
         <v>252</v>
@@ -9829,7 +9829,7 @@
         <v>61</v>
       </c>
       <c r="E428" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F428" t="s">
         <v>255</v>
@@ -9849,7 +9849,7 @@
         <v>125</v>
       </c>
       <c r="E429" s="2">
-        <v>11.97</v>
+        <v>-11.97</v>
       </c>
       <c r="F429" t="s">
         <v>235</v>
@@ -9869,7 +9869,7 @@
         <v>36</v>
       </c>
       <c r="E430" s="2">
-        <v>4.29</v>
+        <v>-4.29</v>
       </c>
       <c r="F430" t="s">
         <v>228</v>
@@ -9889,7 +9889,7 @@
         <v>27</v>
       </c>
       <c r="E431" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F431" t="s">
         <v>252</v>
@@ -9909,7 +9909,7 @@
         <v>158</v>
       </c>
       <c r="E432" s="2">
-        <v>6.42</v>
+        <v>-6.42</v>
       </c>
       <c r="F432" t="s">
         <v>229</v>
@@ -9929,7 +9929,7 @@
         <v>27</v>
       </c>
       <c r="E433" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F433" t="s">
         <v>252</v>
@@ -9949,7 +9949,7 @@
         <v>61</v>
       </c>
       <c r="E434" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F434" t="s">
         <v>255</v>
@@ -9969,7 +9969,7 @@
         <v>36</v>
       </c>
       <c r="E435" s="2">
-        <v>4.29</v>
+        <v>-4.29</v>
       </c>
       <c r="F435" t="s">
         <v>228</v>
@@ -9989,7 +9989,7 @@
         <v>27</v>
       </c>
       <c r="E436" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F436" t="s">
         <v>252</v>
@@ -10009,7 +10009,7 @@
         <v>159</v>
       </c>
       <c r="E437" s="2">
-        <v>53.66</v>
+        <v>-53.66</v>
       </c>
       <c r="F437" t="s">
         <v>235</v>
@@ -10029,7 +10029,7 @@
         <v>160</v>
       </c>
       <c r="E438" s="2">
-        <v>42.47</v>
+        <v>-42.47</v>
       </c>
       <c r="F438" t="s">
         <v>235</v>
@@ -10049,7 +10049,7 @@
         <v>102</v>
       </c>
       <c r="E439" s="2">
-        <v>2.99</v>
+        <v>-2.99</v>
       </c>
       <c r="F439" t="s">
         <v>235</v>
@@ -10069,7 +10069,7 @@
         <v>157</v>
       </c>
       <c r="E440" s="2">
-        <v>5.99</v>
+        <v>-5.99</v>
       </c>
       <c r="F440" t="s">
         <v>245</v>
@@ -10089,7 +10089,7 @@
         <v>27</v>
       </c>
       <c r="E441" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F441" t="s">
         <v>252</v>
@@ -10109,7 +10109,7 @@
         <v>61</v>
       </c>
       <c r="E442" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F442" t="s">
         <v>255</v>
@@ -10129,7 +10129,7 @@
         <v>27</v>
       </c>
       <c r="E443" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F443" t="s">
         <v>252</v>
@@ -10149,7 +10149,7 @@
         <v>104</v>
       </c>
       <c r="E444" s="2">
-        <v>19.38</v>
+        <v>-19.38</v>
       </c>
       <c r="F444" t="s">
         <v>244</v>
@@ -10169,7 +10169,7 @@
         <v>13</v>
       </c>
       <c r="E445" s="2">
-        <v>13.2</v>
+        <v>-13.2</v>
       </c>
       <c r="F445" t="s">
         <v>244</v>
@@ -10189,7 +10189,7 @@
         <v>15</v>
       </c>
       <c r="E446" s="2">
-        <v>2.99</v>
+        <v>-2.99</v>
       </c>
       <c r="F446" t="s">
         <v>228</v>
@@ -10209,7 +10209,7 @@
         <v>102</v>
       </c>
       <c r="E447" s="2">
-        <v>9.91</v>
+        <v>-9.91</v>
       </c>
       <c r="F447" t="s">
         <v>235</v>
@@ -10229,7 +10229,7 @@
         <v>40</v>
       </c>
       <c r="E448" s="2">
-        <v>11.84</v>
+        <v>-11.84</v>
       </c>
       <c r="F448" t="s">
         <v>255</v>
@@ -10249,7 +10249,7 @@
         <v>41</v>
       </c>
       <c r="E449" s="2">
-        <v>34.19</v>
+        <v>-34.19</v>
       </c>
       <c r="F449" t="s">
         <v>235</v>
@@ -10269,7 +10269,7 @@
         <v>161</v>
       </c>
       <c r="E450" s="2">
-        <v>11.92</v>
+        <v>-11.92</v>
       </c>
       <c r="F450" t="s">
         <v>228</v>
@@ -10289,7 +10289,7 @@
         <v>162</v>
       </c>
       <c r="E451" s="2">
-        <v>4.33</v>
+        <v>-4.33</v>
       </c>
       <c r="F451" t="s">
         <v>258</v>
@@ -10309,7 +10309,7 @@
         <v>163</v>
       </c>
       <c r="E452" s="2">
-        <v>26.06</v>
+        <v>-26.06</v>
       </c>
       <c r="F452" t="s">
         <v>244</v>
@@ -10329,7 +10329,7 @@
         <v>164</v>
       </c>
       <c r="E453" s="2">
-        <v>5.2</v>
+        <v>-5.2</v>
       </c>
       <c r="F453" t="s">
         <v>229</v>
@@ -10349,7 +10349,7 @@
         <v>123</v>
       </c>
       <c r="E454" s="2">
-        <v>8.18</v>
+        <v>-8.18</v>
       </c>
       <c r="F454" t="s">
         <v>253</v>
@@ -10369,7 +10369,7 @@
         <v>44</v>
       </c>
       <c r="E455" s="2">
-        <v>26.91</v>
+        <v>-26.91</v>
       </c>
       <c r="F455" t="s">
         <v>245</v>
@@ -10389,7 +10389,7 @@
         <v>123</v>
       </c>
       <c r="E456" s="2">
-        <v>30.86</v>
+        <v>-30.86</v>
       </c>
       <c r="F456" t="s">
         <v>253</v>
@@ -10409,7 +10409,7 @@
         <v>157</v>
       </c>
       <c r="E457" s="2">
-        <v>3.99</v>
+        <v>-3.99</v>
       </c>
       <c r="F457" t="s">
         <v>245</v>
@@ -10429,7 +10429,7 @@
         <v>61</v>
       </c>
       <c r="E458" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F458" t="s">
         <v>255</v>
@@ -10449,7 +10449,7 @@
         <v>27</v>
       </c>
       <c r="E459" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F459" t="s">
         <v>252</v>
@@ -10469,7 +10469,7 @@
         <v>58</v>
       </c>
       <c r="E460" s="2">
-        <v>11.63</v>
+        <v>-11.63</v>
       </c>
       <c r="F460" t="s">
         <v>253</v>
@@ -10489,7 +10489,7 @@
         <v>37</v>
       </c>
       <c r="E461" s="2">
-        <v>11.86</v>
+        <v>-11.86</v>
       </c>
       <c r="F461" t="s">
         <v>229</v>
@@ -10509,7 +10509,7 @@
         <v>61</v>
       </c>
       <c r="E462" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F462" t="s">
         <v>255</v>
@@ -10529,7 +10529,7 @@
         <v>52</v>
       </c>
       <c r="E463" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F463" t="s">
         <v>246</v>
@@ -10549,7 +10549,7 @@
         <v>165</v>
       </c>
       <c r="E464" s="2">
-        <v>7.2</v>
+        <v>-7.2</v>
       </c>
       <c r="F464" t="s">
         <v>255</v>
@@ -10569,7 +10569,7 @@
         <v>103</v>
       </c>
       <c r="E465" s="2">
-        <v>25.84</v>
+        <v>-25.84</v>
       </c>
       <c r="F465" t="s">
         <v>228</v>
@@ -10589,7 +10589,7 @@
         <v>103</v>
       </c>
       <c r="E466" s="2">
-        <v>0.05</v>
+        <v>-0.05</v>
       </c>
       <c r="F466" t="s">
         <v>228</v>
@@ -10609,7 +10609,7 @@
         <v>166</v>
       </c>
       <c r="E467" s="2">
-        <v>10.99</v>
+        <v>-10.99</v>
       </c>
       <c r="F467" t="s">
         <v>258</v>
@@ -10629,7 +10629,7 @@
         <v>143</v>
       </c>
       <c r="E468" s="2">
-        <v>344</v>
+        <v>-344</v>
       </c>
       <c r="F468" t="s">
         <v>234</v>
@@ -10649,7 +10649,7 @@
         <v>84</v>
       </c>
       <c r="E469" s="2">
-        <v>11.68</v>
+        <v>-11.68</v>
       </c>
       <c r="F469" t="s">
         <v>245</v>
@@ -10669,7 +10669,7 @@
         <v>44</v>
       </c>
       <c r="E470" s="2">
-        <v>40.18</v>
+        <v>-40.18</v>
       </c>
       <c r="F470" t="s">
         <v>245</v>
@@ -10689,7 +10689,7 @@
         <v>26</v>
       </c>
       <c r="E471" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F471" t="s">
         <v>246</v>
@@ -10709,7 +10709,7 @@
         <v>27</v>
       </c>
       <c r="E472" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F472" t="s">
         <v>252</v>
@@ -10729,7 +10729,7 @@
         <v>27</v>
       </c>
       <c r="E473" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F473" t="s">
         <v>252</v>
@@ -10749,7 +10749,7 @@
         <v>167</v>
       </c>
       <c r="E474" s="2">
-        <v>10.97</v>
+        <v>-10.97</v>
       </c>
       <c r="F474" t="s">
         <v>229</v>
@@ -10769,7 +10769,7 @@
         <v>168</v>
       </c>
       <c r="E475" s="2">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F475" t="s">
         <v>260</v>
@@ -10789,7 +10789,7 @@
         <v>169</v>
       </c>
       <c r="E476" s="2">
-        <v>209.65</v>
+        <v>-209.65</v>
       </c>
       <c r="F476" t="s">
         <v>232</v>
@@ -10809,7 +10809,7 @@
         <v>15</v>
       </c>
       <c r="E477" s="2">
-        <v>2.2200000000000002</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="F477" t="s">
         <v>228</v>
@@ -10829,7 +10829,7 @@
         <v>10</v>
       </c>
       <c r="E478" s="2">
-        <v>341</v>
+        <v>-341</v>
       </c>
       <c r="F478" t="s">
         <v>246</v>
@@ -10849,7 +10849,7 @@
         <v>44</v>
       </c>
       <c r="E479" s="2">
-        <v>27.64</v>
+        <v>-27.64</v>
       </c>
       <c r="F479" t="s">
         <v>245</v>
@@ -10869,7 +10869,7 @@
         <v>27</v>
       </c>
       <c r="E480" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F480" t="s">
         <v>252</v>
@@ -10889,7 +10889,7 @@
         <v>170</v>
       </c>
       <c r="E481" s="2">
-        <v>7.5</v>
+        <v>-7.5</v>
       </c>
       <c r="F481" t="s">
         <v>255</v>
@@ -10909,7 +10909,7 @@
         <v>171</v>
       </c>
       <c r="E482" s="2">
-        <v>25.54</v>
+        <v>-25.54</v>
       </c>
       <c r="F482" t="s">
         <v>228</v>
@@ -10929,7 +10929,7 @@
         <v>172</v>
       </c>
       <c r="E483" s="2">
-        <v>13.35</v>
+        <v>-13.35</v>
       </c>
       <c r="F483" t="s">
         <v>229</v>
@@ -10949,7 +10949,7 @@
         <v>173</v>
       </c>
       <c r="E484" s="2">
-        <v>39.06</v>
+        <v>-39.06</v>
       </c>
       <c r="F484" t="s">
         <v>229</v>
@@ -10969,7 +10969,7 @@
         <v>112</v>
       </c>
       <c r="E485" s="2">
-        <v>10.17</v>
+        <v>-10.17</v>
       </c>
       <c r="F485" t="s">
         <v>229</v>
@@ -10989,7 +10989,7 @@
         <v>123</v>
       </c>
       <c r="E486" s="2">
-        <v>8.67</v>
+        <v>-8.67</v>
       </c>
       <c r="F486" t="s">
         <v>253</v>
@@ -11009,7 +11009,7 @@
         <v>27</v>
       </c>
       <c r="E487" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F487" t="s">
         <v>252</v>
@@ -11029,7 +11029,7 @@
         <v>44</v>
       </c>
       <c r="E488" s="2">
-        <v>28.19</v>
+        <v>-28.19</v>
       </c>
       <c r="F488" t="s">
         <v>245</v>
@@ -11049,7 +11049,7 @@
         <v>160</v>
       </c>
       <c r="E489" s="2">
-        <v>465.93</v>
+        <v>-465.93</v>
       </c>
       <c r="F489" t="s">
         <v>235</v>
@@ -11069,7 +11069,7 @@
         <v>174</v>
       </c>
       <c r="E490" s="2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F490" t="s">
         <v>249</v>
@@ -11089,7 +11089,7 @@
         <v>53</v>
       </c>
       <c r="E491" s="2">
-        <v>18.28</v>
+        <v>-18.28</v>
       </c>
       <c r="F491" t="s">
         <v>235</v>
@@ -11109,7 +11109,7 @@
         <v>61</v>
       </c>
       <c r="E492" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F492" t="s">
         <v>255</v>
@@ -11129,7 +11129,7 @@
         <v>175</v>
       </c>
       <c r="E493" s="2">
-        <v>18.989999999999998</v>
+        <v>-18.989999999999998</v>
       </c>
       <c r="F493" t="s">
         <v>253</v>
@@ -11149,7 +11149,7 @@
         <v>176</v>
       </c>
       <c r="E494" s="2">
-        <v>25.6</v>
+        <v>-25.6</v>
       </c>
       <c r="F494" t="s">
         <v>229</v>
@@ -11169,7 +11169,7 @@
         <v>102</v>
       </c>
       <c r="E495" s="2">
-        <v>4.6900000000000004</v>
+        <v>-4.6900000000000004</v>
       </c>
       <c r="F495" t="s">
         <v>235</v>
@@ -11189,7 +11189,7 @@
         <v>27</v>
       </c>
       <c r="E496" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F496" t="s">
         <v>252</v>
@@ -11209,7 +11209,7 @@
         <v>177</v>
       </c>
       <c r="E497" s="2">
-        <v>8.43</v>
+        <v>-8.43</v>
       </c>
       <c r="F497" t="s">
         <v>229</v>
@@ -11229,7 +11229,7 @@
         <v>61</v>
       </c>
       <c r="E498" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F498" t="s">
         <v>255</v>
@@ -11249,7 +11249,7 @@
         <v>178</v>
       </c>
       <c r="E499" s="2">
-        <v>34.520000000000003</v>
+        <v>-34.520000000000003</v>
       </c>
       <c r="F499" t="s">
         <v>234</v>
@@ -11269,7 +11269,7 @@
         <v>179</v>
       </c>
       <c r="E500" s="2">
-        <v>24.15</v>
+        <v>-24.15</v>
       </c>
       <c r="F500" t="s">
         <v>258</v>
@@ -11289,7 +11289,7 @@
         <v>53</v>
       </c>
       <c r="E501" s="2">
-        <v>13.22</v>
+        <v>-13.22</v>
       </c>
       <c r="F501" t="s">
         <v>235</v>
@@ -11309,7 +11309,7 @@
         <v>141</v>
       </c>
       <c r="E502" s="2">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F502" t="s">
         <v>246</v>
@@ -11329,7 +11329,7 @@
         <v>61</v>
       </c>
       <c r="E503" s="2">
-        <v>13.17</v>
+        <v>-13.17</v>
       </c>
       <c r="F503" t="s">
         <v>255</v>
@@ -11349,7 +11349,7 @@
         <v>27</v>
       </c>
       <c r="E504" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F504" t="s">
         <v>252</v>
@@ -11369,7 +11369,7 @@
         <v>61</v>
       </c>
       <c r="E505" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F505" t="s">
         <v>255</v>
@@ -11389,7 +11389,7 @@
         <v>27</v>
       </c>
       <c r="E506" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F506" t="s">
         <v>252</v>
@@ -11409,7 +11409,7 @@
         <v>180</v>
       </c>
       <c r="E507" s="2">
-        <v>2.19</v>
+        <v>-2.19</v>
       </c>
       <c r="F507" t="s">
         <v>229</v>
@@ -11429,7 +11429,7 @@
         <v>181</v>
       </c>
       <c r="E508" s="2">
-        <v>11.42</v>
+        <v>-11.42</v>
       </c>
       <c r="F508" t="s">
         <v>229</v>
@@ -11449,7 +11449,7 @@
         <v>61</v>
       </c>
       <c r="E509" s="2">
-        <v>7.02</v>
+        <v>-7.02</v>
       </c>
       <c r="F509" t="s">
         <v>255</v>
@@ -11469,7 +11469,7 @@
         <v>52</v>
       </c>
       <c r="E510" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F510" t="s">
         <v>246</v>
@@ -11489,7 +11489,7 @@
         <v>27</v>
       </c>
       <c r="E511" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F511" t="s">
         <v>252</v>
@@ -11509,7 +11509,7 @@
         <v>27</v>
       </c>
       <c r="E512" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F512" t="s">
         <v>252</v>
@@ -11529,7 +11529,7 @@
         <v>182</v>
       </c>
       <c r="E513" s="2">
-        <v>8.25</v>
+        <v>-8.25</v>
       </c>
       <c r="F513" t="s">
         <v>255</v>
@@ -11549,7 +11549,7 @@
         <v>183</v>
       </c>
       <c r="E514" s="2">
-        <v>11.79</v>
+        <v>-11.79</v>
       </c>
       <c r="F514" t="s">
         <v>253</v>
@@ -11569,7 +11569,7 @@
         <v>184</v>
       </c>
       <c r="E515" s="2">
-        <v>7.28</v>
+        <v>-7.28</v>
       </c>
       <c r="F515" t="s">
         <v>254</v>
@@ -11589,7 +11589,7 @@
         <v>171</v>
       </c>
       <c r="E516" s="2">
-        <v>8.7899999999999991</v>
+        <v>-8.7899999999999991</v>
       </c>
       <c r="F516" t="s">
         <v>228</v>
@@ -11609,7 +11609,7 @@
         <v>42</v>
       </c>
       <c r="E517" s="2">
-        <v>11.06</v>
+        <v>-11.06</v>
       </c>
       <c r="F517" t="s">
         <v>244</v>
@@ -11629,7 +11629,7 @@
         <v>185</v>
       </c>
       <c r="E518" s="2">
-        <v>33.25</v>
+        <v>-33.25</v>
       </c>
       <c r="F518" t="s">
         <v>234</v>
@@ -11649,7 +11649,7 @@
         <v>186</v>
       </c>
       <c r="E519" s="2">
-        <v>31.88</v>
+        <v>-31.88</v>
       </c>
       <c r="F519" t="s">
         <v>233</v>
@@ -11669,7 +11669,7 @@
         <v>110</v>
       </c>
       <c r="E520" s="2">
-        <v>46.73</v>
+        <v>-46.73</v>
       </c>
       <c r="F520" t="s">
         <v>235</v>
@@ -11689,7 +11689,7 @@
         <v>26</v>
       </c>
       <c r="E521" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F521" t="s">
         <v>246</v>
@@ -11709,7 +11709,7 @@
         <v>187</v>
       </c>
       <c r="E522" s="2">
-        <v>10.210000000000001</v>
+        <v>-10.210000000000001</v>
       </c>
       <c r="F522" t="s">
         <v>244</v>
@@ -11729,7 +11729,7 @@
         <v>188</v>
       </c>
       <c r="E523" s="2">
-        <v>12.35</v>
+        <v>-12.35</v>
       </c>
       <c r="F523" t="s">
         <v>244</v>
@@ -11749,7 +11749,7 @@
         <v>42</v>
       </c>
       <c r="E524" s="2">
-        <v>6.87</v>
+        <v>-6.87</v>
       </c>
       <c r="F524" t="s">
         <v>244</v>
@@ -11769,7 +11769,7 @@
         <v>189</v>
       </c>
       <c r="E525" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F525" t="s">
         <v>258</v>
@@ -11789,7 +11789,7 @@
         <v>190</v>
       </c>
       <c r="E526" s="2">
-        <v>5.95</v>
+        <v>-5.95</v>
       </c>
       <c r="F526" t="s">
         <v>244</v>
@@ -11809,7 +11809,7 @@
         <v>161</v>
       </c>
       <c r="E527" s="2">
-        <v>3.47</v>
+        <v>-3.47</v>
       </c>
       <c r="F527" t="s">
         <v>228</v>
@@ -11829,7 +11829,7 @@
         <v>103</v>
       </c>
       <c r="E528" s="2">
-        <v>14.68</v>
+        <v>-14.68</v>
       </c>
       <c r="F528" t="s">
         <v>228</v>
@@ -11849,7 +11849,7 @@
         <v>10</v>
       </c>
       <c r="E529" s="2">
-        <v>341</v>
+        <v>-341</v>
       </c>
       <c r="F529" t="s">
         <v>246</v>
@@ -11869,7 +11869,7 @@
         <v>61</v>
       </c>
       <c r="E530" s="2">
-        <v>6.26</v>
+        <v>-6.26</v>
       </c>
       <c r="F530" t="s">
         <v>255</v>
@@ -11889,7 +11889,7 @@
         <v>27</v>
       </c>
       <c r="E531" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F531" t="s">
         <v>252</v>
@@ -11909,7 +11909,7 @@
         <v>191</v>
       </c>
       <c r="E532" s="2">
-        <v>9.23</v>
+        <v>-9.23</v>
       </c>
       <c r="F532" t="s">
         <v>228</v>
@@ -11929,7 +11929,7 @@
         <v>116</v>
       </c>
       <c r="E533" s="2">
-        <v>13.6</v>
+        <v>-13.6</v>
       </c>
       <c r="F533" t="s">
         <v>229</v>
@@ -11949,7 +11949,7 @@
         <v>61</v>
       </c>
       <c r="E534" s="2">
-        <v>6.26</v>
+        <v>-6.26</v>
       </c>
       <c r="F534" t="s">
         <v>255</v>
@@ -11969,7 +11969,7 @@
         <v>192</v>
       </c>
       <c r="E535" s="2">
-        <v>14.6</v>
+        <v>-14.6</v>
       </c>
       <c r="F535" t="s">
         <v>233</v>
@@ -11989,7 +11989,7 @@
         <v>189</v>
       </c>
       <c r="E536" s="2">
-        <v>6.99</v>
+        <v>-6.99</v>
       </c>
       <c r="F536" t="s">
         <v>258</v>
@@ -12009,7 +12009,7 @@
         <v>193</v>
       </c>
       <c r="E537" s="2">
-        <v>1.08</v>
+        <v>-1.08</v>
       </c>
       <c r="F537" t="s">
         <v>243</v>
@@ -12029,7 +12029,7 @@
         <v>194</v>
       </c>
       <c r="E538" s="2">
-        <v>1.08</v>
+        <v>-1.08</v>
       </c>
       <c r="F538" t="s">
         <v>243</v>
@@ -12049,7 +12049,7 @@
         <v>194</v>
       </c>
       <c r="E539" s="2">
-        <v>18.45</v>
+        <v>-18.45</v>
       </c>
       <c r="F539" t="s">
         <v>258</v>
@@ -12069,7 +12069,7 @@
         <v>174</v>
       </c>
       <c r="E540" s="2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F540" t="s">
         <v>249</v>
@@ -12089,7 +12089,7 @@
         <v>84</v>
       </c>
       <c r="E541" s="2">
-        <v>31.38</v>
+        <v>-31.38</v>
       </c>
       <c r="F541" t="s">
         <v>245</v>
@@ -12109,7 +12109,7 @@
         <v>175</v>
       </c>
       <c r="E542" s="2">
-        <v>8.68</v>
+        <v>-8.68</v>
       </c>
       <c r="F542" t="s">
         <v>253</v>
@@ -12129,7 +12129,7 @@
         <v>195</v>
       </c>
       <c r="E543" s="2">
-        <v>28.14</v>
+        <v>-28.14</v>
       </c>
       <c r="F543" t="s">
         <v>233</v>
@@ -12149,7 +12149,7 @@
         <v>61</v>
       </c>
       <c r="E544" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F544" t="s">
         <v>255</v>
@@ -12169,7 +12169,7 @@
         <v>27</v>
       </c>
       <c r="E545" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F545" t="s">
         <v>252</v>
@@ -12189,7 +12189,7 @@
         <v>181</v>
       </c>
       <c r="E546" s="2">
-        <v>11.42</v>
+        <v>-11.42</v>
       </c>
       <c r="F546" t="s">
         <v>229</v>
@@ -12209,7 +12209,7 @@
         <v>61</v>
       </c>
       <c r="E547" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F547" t="s">
         <v>255</v>
@@ -12229,7 +12229,7 @@
         <v>196</v>
       </c>
       <c r="E548" s="2">
-        <v>18.77</v>
+        <v>-18.77</v>
       </c>
       <c r="F548" t="s">
         <v>229</v>
@@ -12249,7 +12249,7 @@
         <v>103</v>
       </c>
       <c r="E549" s="2">
-        <v>6.07</v>
+        <v>-6.07</v>
       </c>
       <c r="F549" t="s">
         <v>228</v>
@@ -12269,7 +12269,7 @@
         <v>61</v>
       </c>
       <c r="E550" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F550" t="s">
         <v>255</v>
@@ -12289,7 +12289,7 @@
         <v>61</v>
       </c>
       <c r="E551" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F551" t="s">
         <v>255</v>
@@ -12309,7 +12309,7 @@
         <v>197</v>
       </c>
       <c r="E552" s="2">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
       <c r="F552" t="s">
         <v>228</v>
@@ -12329,7 +12329,7 @@
         <v>61</v>
       </c>
       <c r="E553" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F553" t="s">
         <v>255</v>
@@ -12349,7 +12349,7 @@
         <v>198</v>
       </c>
       <c r="E554" s="2">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
       <c r="F554" t="s">
         <v>228</v>
@@ -12369,7 +12369,7 @@
         <v>53</v>
       </c>
       <c r="E555" s="2">
-        <v>27.59</v>
+        <v>-27.59</v>
       </c>
       <c r="F555" t="s">
         <v>235</v>
@@ -12389,7 +12389,7 @@
         <v>93</v>
       </c>
       <c r="E556" s="2">
-        <v>32.700000000000003</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="F556" t="s">
         <v>233</v>
@@ -12409,7 +12409,7 @@
         <v>199</v>
       </c>
       <c r="E557" s="2">
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="F557" t="s">
         <v>260</v>
@@ -12429,7 +12429,7 @@
         <v>200</v>
       </c>
       <c r="E558" s="2">
-        <v>12.56</v>
+        <v>-12.56</v>
       </c>
       <c r="F558" t="s">
         <v>253</v>
@@ -12449,7 +12449,7 @@
         <v>53</v>
       </c>
       <c r="E559" s="2">
-        <v>3.49</v>
+        <v>-3.49</v>
       </c>
       <c r="F559" t="s">
         <v>235</v>
@@ -12469,7 +12469,7 @@
         <v>201</v>
       </c>
       <c r="E560" s="2">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F560" t="s">
         <v>249</v>
@@ -12489,7 +12489,7 @@
         <v>27</v>
       </c>
       <c r="E561" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F561" t="s">
         <v>252</v>
@@ -12509,7 +12509,7 @@
         <v>202</v>
       </c>
       <c r="E562" s="2">
-        <v>6.73</v>
+        <v>-6.73</v>
       </c>
       <c r="F562" t="s">
         <v>228</v>
@@ -12529,7 +12529,7 @@
         <v>163</v>
       </c>
       <c r="E563" s="2">
-        <v>41.25</v>
+        <v>-41.25</v>
       </c>
       <c r="F563" t="s">
         <v>244</v>
@@ -12549,7 +12549,7 @@
         <v>15</v>
       </c>
       <c r="E564" s="2">
-        <v>1.78</v>
+        <v>-1.78</v>
       </c>
       <c r="F564" t="s">
         <v>228</v>
@@ -12569,7 +12569,7 @@
         <v>52</v>
       </c>
       <c r="E565" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F565" t="s">
         <v>246</v>
@@ -12589,7 +12589,7 @@
         <v>20</v>
       </c>
       <c r="E566" s="2">
-        <v>9.0399999999999991</v>
+        <v>-9.0399999999999991</v>
       </c>
       <c r="F566" t="s">
         <v>228</v>
@@ -12609,7 +12609,7 @@
         <v>123</v>
       </c>
       <c r="E567" s="2">
-        <v>16.27</v>
+        <v>-16.27</v>
       </c>
       <c r="F567" t="s">
         <v>253</v>
@@ -12629,7 +12629,7 @@
         <v>123</v>
       </c>
       <c r="E568" s="2">
-        <v>28.18</v>
+        <v>-28.18</v>
       </c>
       <c r="F568" t="s">
         <v>253</v>
@@ -12649,7 +12649,7 @@
         <v>203</v>
       </c>
       <c r="E569" s="2">
-        <v>57.51</v>
+        <v>-57.51</v>
       </c>
       <c r="F569" t="s">
         <v>234</v>
@@ -12669,7 +12669,7 @@
         <v>64</v>
       </c>
       <c r="E570" s="2">
-        <v>3.91</v>
+        <v>-3.91</v>
       </c>
       <c r="F570" t="s">
         <v>244</v>
@@ -12689,7 +12689,7 @@
         <v>204</v>
       </c>
       <c r="E571" s="2">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="F571" t="s">
         <v>258</v>
@@ -12709,7 +12709,7 @@
         <v>26</v>
       </c>
       <c r="E572" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F572" t="s">
         <v>246</v>
@@ -12729,7 +12729,7 @@
         <v>205</v>
       </c>
       <c r="E573" s="2">
-        <v>48.91</v>
+        <v>-48.91</v>
       </c>
       <c r="F573" t="s">
         <v>235</v>
@@ -12749,7 +12749,7 @@
         <v>61</v>
       </c>
       <c r="E574" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F574" t="s">
         <v>255</v>
@@ -12769,7 +12769,7 @@
         <v>61</v>
       </c>
       <c r="E575" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F575" t="s">
         <v>255</v>
@@ -12789,7 +12789,7 @@
         <v>206</v>
       </c>
       <c r="E576" s="2">
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="F576" t="s">
         <v>258</v>
@@ -12809,7 +12809,7 @@
         <v>207</v>
       </c>
       <c r="E577" s="2">
-        <v>49</v>
+        <v>-49</v>
       </c>
       <c r="F577" t="s">
         <v>257</v>
@@ -12829,7 +12829,7 @@
         <v>61</v>
       </c>
       <c r="E578" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F578" t="s">
         <v>255</v>
@@ -12849,7 +12849,7 @@
         <v>10</v>
       </c>
       <c r="E579" s="2">
-        <v>341</v>
+        <v>-341</v>
       </c>
       <c r="F579" t="s">
         <v>246</v>
@@ -12869,7 +12869,7 @@
         <v>20</v>
       </c>
       <c r="E580" s="2">
-        <v>4.07</v>
+        <v>-4.07</v>
       </c>
       <c r="F580" t="s">
         <v>228</v>
@@ -12889,7 +12889,7 @@
         <v>85</v>
       </c>
       <c r="E581" s="2">
-        <v>20.059999999999999</v>
+        <v>-20.059999999999999</v>
       </c>
       <c r="F581" t="s">
         <v>235</v>
@@ -12909,7 +12909,7 @@
         <v>61</v>
       </c>
       <c r="E582" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F582" t="s">
         <v>255</v>
@@ -12929,7 +12929,7 @@
         <v>61</v>
       </c>
       <c r="E583" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F583" t="s">
         <v>255</v>
@@ -12949,7 +12949,7 @@
         <v>104</v>
       </c>
       <c r="E584" s="2">
-        <v>35.880000000000003</v>
+        <v>-35.880000000000003</v>
       </c>
       <c r="F584" t="s">
         <v>244</v>
@@ -12969,7 +12969,7 @@
         <v>174</v>
       </c>
       <c r="E585" s="2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F585" t="s">
         <v>249</v>
@@ -12989,7 +12989,7 @@
         <v>61</v>
       </c>
       <c r="E586" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F586" t="s">
         <v>255</v>
@@ -13009,7 +13009,7 @@
         <v>84</v>
       </c>
       <c r="E587" s="2">
-        <v>13.58</v>
+        <v>-13.58</v>
       </c>
       <c r="F587" t="s">
         <v>245</v>
@@ -13029,7 +13029,7 @@
         <v>165</v>
       </c>
       <c r="E588" s="2">
-        <v>10.62</v>
+        <v>-10.62</v>
       </c>
       <c r="F588" t="s">
         <v>255</v>
@@ -13049,7 +13049,7 @@
         <v>208</v>
       </c>
       <c r="E589" s="2">
-        <v>79.88</v>
+        <v>-79.88</v>
       </c>
       <c r="F589" t="s">
         <v>228</v>
@@ -13069,7 +13069,7 @@
         <v>209</v>
       </c>
       <c r="E590" s="2">
-        <v>16.079999999999998</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="F590" t="s">
         <v>228</v>
@@ -13089,7 +13089,7 @@
         <v>210</v>
       </c>
       <c r="E591" s="2">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F591" t="s">
         <v>259</v>
@@ -13109,7 +13109,7 @@
         <v>210</v>
       </c>
       <c r="E592" s="2">
-        <v>48.44</v>
+        <v>-48.44</v>
       </c>
       <c r="F592" t="s">
         <v>229</v>
@@ -13129,7 +13129,7 @@
         <v>211</v>
       </c>
       <c r="E593" s="2">
-        <v>8.51</v>
+        <v>-8.51</v>
       </c>
       <c r="F593" t="s">
         <v>228</v>
@@ -13149,7 +13149,7 @@
         <v>210</v>
       </c>
       <c r="E594" s="2">
-        <v>83.59</v>
+        <v>-83.59</v>
       </c>
       <c r="F594" t="s">
         <v>229</v>
@@ -13169,7 +13169,7 @@
         <v>212</v>
       </c>
       <c r="E595" s="2">
-        <v>28.7</v>
+        <v>-28.7</v>
       </c>
       <c r="F595" t="s">
         <v>244</v>
@@ -13189,7 +13189,7 @@
         <v>213</v>
       </c>
       <c r="E596" s="2">
-        <v>67.209999999999994</v>
+        <v>-67.209999999999994</v>
       </c>
       <c r="F596" t="s">
         <v>233</v>
@@ -13209,7 +13209,7 @@
         <v>123</v>
       </c>
       <c r="E597" s="2">
-        <v>7.58</v>
+        <v>-7.58</v>
       </c>
       <c r="F597" t="s">
         <v>253</v>
@@ -13229,7 +13229,7 @@
         <v>61</v>
       </c>
       <c r="E598" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F598" t="s">
         <v>255</v>
@@ -13249,7 +13249,7 @@
         <v>61</v>
       </c>
       <c r="E599" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F599" t="s">
         <v>255</v>
@@ -13269,7 +13269,7 @@
         <v>53</v>
       </c>
       <c r="E600" s="2">
-        <v>29.76</v>
+        <v>-29.76</v>
       </c>
       <c r="F600" t="s">
         <v>235</v>
@@ -13289,7 +13289,7 @@
         <v>214</v>
       </c>
       <c r="E601" s="2">
-        <v>18.45</v>
+        <v>-18.45</v>
       </c>
       <c r="F601" t="s">
         <v>248</v>
@@ -13309,7 +13309,7 @@
         <v>215</v>
       </c>
       <c r="E602" s="2">
-        <v>13.58</v>
+        <v>-13.58</v>
       </c>
       <c r="F602" t="s">
         <v>258</v>
@@ -13329,7 +13329,7 @@
         <v>123</v>
       </c>
       <c r="E603" s="2">
-        <v>140.54</v>
+        <v>-140.54</v>
       </c>
       <c r="F603" t="s">
         <v>253</v>
@@ -13349,7 +13349,7 @@
         <v>201</v>
       </c>
       <c r="E604" s="2">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F604" t="s">
         <v>249</v>
@@ -13369,7 +13369,7 @@
         <v>15</v>
       </c>
       <c r="E605" s="2">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
       <c r="F605" t="s">
         <v>228</v>
@@ -13389,7 +13389,7 @@
         <v>51</v>
       </c>
       <c r="E606" s="2">
-        <v>20.170000000000002</v>
+        <v>-20.170000000000002</v>
       </c>
       <c r="F606" t="s">
         <v>244</v>
@@ -13409,7 +13409,7 @@
         <v>15</v>
       </c>
       <c r="E607" s="2">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
       <c r="F607" t="s">
         <v>228</v>
@@ -13429,7 +13429,7 @@
         <v>176</v>
       </c>
       <c r="E608" s="2">
-        <v>31.48</v>
+        <v>-31.48</v>
       </c>
       <c r="F608" t="s">
         <v>229</v>
@@ -13449,7 +13449,7 @@
         <v>123</v>
       </c>
       <c r="E609" s="2">
-        <v>5.83</v>
+        <v>-5.83</v>
       </c>
       <c r="F609" t="s">
         <v>253</v>
@@ -13469,7 +13469,7 @@
         <v>64</v>
       </c>
       <c r="E610" s="2">
-        <v>60.41</v>
+        <v>-60.41</v>
       </c>
       <c r="F610" t="s">
         <v>229</v>
@@ -13489,7 +13489,7 @@
         <v>52</v>
       </c>
       <c r="E611" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F611" t="s">
         <v>246</v>
@@ -13509,7 +13509,7 @@
         <v>17</v>
       </c>
       <c r="E612" s="2">
-        <v>3.95</v>
+        <v>-3.95</v>
       </c>
       <c r="F612" t="s">
         <v>245</v>
@@ -13529,7 +13529,7 @@
         <v>61</v>
       </c>
       <c r="E613" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F613" t="s">
         <v>255</v>
@@ -13549,7 +13549,7 @@
         <v>216</v>
       </c>
       <c r="E614" s="2">
-        <v>34.22</v>
+        <v>-34.22</v>
       </c>
       <c r="F614" t="s">
         <v>244</v>
@@ -13569,7 +13569,7 @@
         <v>84</v>
       </c>
       <c r="E615" s="2">
-        <v>15.18</v>
+        <v>-15.18</v>
       </c>
       <c r="F615" t="s">
         <v>245</v>
@@ -13589,7 +13589,7 @@
         <v>217</v>
       </c>
       <c r="E616" s="2">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F616" t="s">
         <v>243</v>
@@ -13609,7 +13609,7 @@
         <v>218</v>
       </c>
       <c r="E617" s="2">
-        <v>10.88</v>
+        <v>-10.88</v>
       </c>
       <c r="F617" t="s">
         <v>244</v>
@@ -13629,7 +13629,7 @@
         <v>160</v>
       </c>
       <c r="E618" s="2">
-        <v>71.900000000000006</v>
+        <v>-71.900000000000006</v>
       </c>
       <c r="F618" t="s">
         <v>235</v>
@@ -13649,7 +13649,7 @@
         <v>101</v>
       </c>
       <c r="E619" s="2">
-        <v>8.56</v>
+        <v>-8.56</v>
       </c>
       <c r="F619" t="s">
         <v>229</v>
@@ -13669,7 +13669,7 @@
         <v>123</v>
       </c>
       <c r="E620" s="2">
-        <v>27.72</v>
+        <v>-27.72</v>
       </c>
       <c r="F620" t="s">
         <v>253</v>
@@ -13689,7 +13689,7 @@
         <v>219</v>
       </c>
       <c r="E621" s="2">
-        <v>199.99</v>
+        <v>-199.99</v>
       </c>
       <c r="F621" t="s">
         <v>257</v>
@@ -13709,7 +13709,7 @@
         <v>10</v>
       </c>
       <c r="E622" s="2">
-        <v>341</v>
+        <v>-341</v>
       </c>
       <c r="F622" t="s">
         <v>246</v>
@@ -13729,7 +13729,7 @@
         <v>220</v>
       </c>
       <c r="E623" s="2">
-        <v>16.29</v>
+        <v>-16.29</v>
       </c>
       <c r="F623" t="s">
         <v>258</v>
@@ -13749,7 +13749,7 @@
         <v>123</v>
       </c>
       <c r="E624" s="2">
-        <v>58.09</v>
+        <v>-58.09</v>
       </c>
       <c r="F624" t="s">
         <v>253</v>
@@ -13769,7 +13769,7 @@
         <v>123</v>
       </c>
       <c r="E625" s="2">
-        <v>58.09</v>
+        <v>-58.09</v>
       </c>
       <c r="F625" t="s">
         <v>253</v>
@@ -13789,7 +13789,7 @@
         <v>221</v>
       </c>
       <c r="E626" s="2">
-        <v>13.23</v>
+        <v>-13.23</v>
       </c>
       <c r="F626" t="s">
         <v>244</v>
@@ -13809,7 +13809,7 @@
         <v>222</v>
       </c>
       <c r="E627" s="2">
-        <v>20.62</v>
+        <v>-20.62</v>
       </c>
       <c r="F627" t="s">
         <v>244</v>
@@ -13829,7 +13829,7 @@
         <v>223</v>
       </c>
       <c r="E628" s="2">
-        <v>5.19</v>
+        <v>-5.19</v>
       </c>
       <c r="F628" t="s">
         <v>244</v>
@@ -13849,7 +13849,7 @@
         <v>174</v>
       </c>
       <c r="E629" s="2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F629" t="s">
         <v>249</v>
@@ -13869,7 +13869,7 @@
         <v>224</v>
       </c>
       <c r="E630" s="2">
-        <v>4.9400000000000004</v>
+        <v>-4.9400000000000004</v>
       </c>
       <c r="F630" t="s">
         <v>243</v>
@@ -13889,7 +13889,7 @@
         <v>103</v>
       </c>
       <c r="E631" s="2">
-        <v>11.05</v>
+        <v>-11.05</v>
       </c>
       <c r="F631" t="s">
         <v>228</v>
@@ -13909,7 +13909,7 @@
         <v>196</v>
       </c>
       <c r="E632" s="2">
-        <v>4.34</v>
+        <v>-4.34</v>
       </c>
       <c r="F632" t="s">
         <v>229</v>
@@ -13929,7 +13929,7 @@
         <v>225</v>
       </c>
       <c r="E633" s="2">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="F633" t="s">
         <v>258</v>
@@ -13949,7 +13949,7 @@
         <v>200</v>
       </c>
       <c r="E634" s="2">
-        <v>54.25</v>
+        <v>-54.25</v>
       </c>
       <c r="F634" t="s">
         <v>253</v>
@@ -13969,7 +13969,7 @@
         <v>226</v>
       </c>
       <c r="E635" s="2">
-        <v>14.11</v>
+        <v>-14.11</v>
       </c>
       <c r="F635" t="s">
         <v>229</v>
@@ -13989,7 +13989,7 @@
         <v>27</v>
       </c>
       <c r="E636" s="2">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="F636" t="s">
         <v>252</v>
@@ -14009,7 +14009,7 @@
         <v>182</v>
       </c>
       <c r="E637" s="2">
-        <v>6.74</v>
+        <v>-6.74</v>
       </c>
       <c r="F637" t="s">
         <v>255</v>
@@ -14029,7 +14029,7 @@
         <v>196</v>
       </c>
       <c r="E638" s="2">
-        <v>18.55</v>
+        <v>-18.55</v>
       </c>
       <c r="F638" t="s">
         <v>229</v>
@@ -14049,7 +14049,7 @@
         <v>15</v>
       </c>
       <c r="E639" s="2">
-        <v>5.45</v>
+        <v>-5.45</v>
       </c>
       <c r="F639" t="s">
         <v>228</v>
@@ -14069,7 +14069,7 @@
         <v>227</v>
       </c>
       <c r="E640" s="2">
-        <v>28.91</v>
+        <v>-28.91</v>
       </c>
       <c r="F640" t="s">
         <v>244</v>
@@ -14089,7 +14089,7 @@
         <v>199</v>
       </c>
       <c r="E641" s="2">
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="F641" t="s">
         <v>260</v>
@@ -14109,7 +14109,7 @@
         <v>214</v>
       </c>
       <c r="E642" s="2">
-        <v>18.45</v>
+        <v>-18.45</v>
       </c>
       <c r="F642" t="s">
         <v>248</v>
@@ -14129,7 +14129,7 @@
         <v>61</v>
       </c>
       <c r="E643" s="2">
-        <v>14.15</v>
+        <v>-14.15</v>
       </c>
       <c r="F643" t="s">
         <v>255</v>
@@ -14149,7 +14149,7 @@
         <v>201</v>
       </c>
       <c r="E644" s="2">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F644" t="s">
         <v>249</v>
@@ -14169,7 +14169,7 @@
         <v>61</v>
       </c>
       <c r="E645" s="2">
-        <v>13.83</v>
+        <v>-13.83</v>
       </c>
       <c r="F645" t="s">
         <v>255</v>
@@ -14189,7 +14189,7 @@
         <v>17</v>
       </c>
       <c r="E646" s="2">
-        <v>71.61</v>
+        <v>-71.61</v>
       </c>
       <c r="F646" t="s">
         <v>245</v>
@@ -14209,7 +14209,7 @@
         <v>52</v>
       </c>
       <c r="E647" s="2">
-        <v>7.99</v>
+        <v>-7.99</v>
       </c>
       <c r="F647" t="s">
         <v>246</v>
@@ -14229,7 +14229,7 @@
         <v>61</v>
       </c>
       <c r="E648" s="2">
-        <v>7.35</v>
+        <v>-7.35</v>
       </c>
       <c r="F648" t="s">
         <v>255</v>
@@ -14249,7 +14249,7 @@
         <v>89</v>
       </c>
       <c r="E649" s="2">
-        <v>3.79</v>
+        <v>-3.79</v>
       </c>
       <c r="F649" t="s">
         <v>258</v>
@@ -14269,7 +14269,7 @@
         <v>17</v>
       </c>
       <c r="E650" s="2">
-        <v>11.39</v>
+        <v>-11.39</v>
       </c>
       <c r="F650" t="s">
         <v>245</v>
@@ -14288,7 +14288,7 @@
       <c r="D651" t="s">
         <v>236</v>
       </c>
-      <c r="E651">
+      <c r="E651" s="2">
         <v>-7.07</v>
       </c>
       <c r="F651" t="s">
@@ -14308,7 +14308,7 @@
       <c r="D652" t="s">
         <v>237</v>
       </c>
-      <c r="E652">
+      <c r="E652" s="2">
         <v>-30.75</v>
       </c>
       <c r="F652" t="s">
@@ -14328,7 +14328,7 @@
       <c r="D653" t="s">
         <v>98</v>
       </c>
-      <c r="E653">
+      <c r="E653" s="2">
         <v>-17.57</v>
       </c>
       <c r="F653" t="s">
@@ -14348,7 +14348,7 @@
       <c r="D654" t="s">
         <v>238</v>
       </c>
-      <c r="E654">
+      <c r="E654" s="2">
         <v>-78.069999999999993</v>
       </c>
       <c r="F654" t="s">
@@ -14368,7 +14368,7 @@
       <c r="D655" t="s">
         <v>239</v>
       </c>
-      <c r="E655">
+      <c r="E655" s="2">
         <v>-16.28</v>
       </c>
       <c r="F655" t="s">
@@ -14388,7 +14388,7 @@
       <c r="D656" t="s">
         <v>143</v>
       </c>
-      <c r="E656">
+      <c r="E656" s="2">
         <v>-44.97</v>
       </c>
       <c r="F656" t="s">
@@ -14408,7 +14408,7 @@
       <c r="D657" t="s">
         <v>163</v>
       </c>
-      <c r="E657">
+      <c r="E657" s="2">
         <v>-34.75</v>
       </c>
       <c r="F657" t="s">
@@ -14428,7 +14428,7 @@
       <c r="D658" t="s">
         <v>240</v>
       </c>
-      <c r="E658">
+      <c r="E658" s="2">
         <v>-22.91</v>
       </c>
       <c r="F658" t="s">
@@ -14448,7 +14448,7 @@
       <c r="D659" t="s">
         <v>237</v>
       </c>
-      <c r="E659">
+      <c r="E659" s="2">
         <v>-23.38</v>
       </c>
       <c r="F659" t="s">
@@ -14468,7 +14468,7 @@
       <c r="D660" t="s">
         <v>241</v>
       </c>
-      <c r="E660">
+      <c r="E660" s="2">
         <v>-89.06</v>
       </c>
       <c r="F660" t="s">
@@ -14488,7 +14488,7 @@
       <c r="D661" t="s">
         <v>237</v>
       </c>
-      <c r="E661">
+      <c r="E661" s="2">
         <v>-10.8</v>
       </c>
       <c r="F661" t="s">
@@ -14508,7 +14508,7 @@
       <c r="D662" t="s">
         <v>242</v>
       </c>
-      <c r="E662">
+      <c r="E662" s="2">
         <v>-16.45</v>
       </c>
       <c r="F662" t="s">
@@ -14528,7 +14528,7 @@
       <c r="D663" t="s">
         <v>121</v>
       </c>
-      <c r="E663">
+      <c r="E663" s="2">
         <v>-11.14</v>
       </c>
       <c r="F663" t="s">
